--- a/dist/GASTO_CSV.xlsx
+++ b/dist/GASTO_CSV.xlsx
@@ -11,13 +11,16 @@
     <sheet name="PIB" sheetId="2" r:id="rId2"/>
     <sheet name="GPT" sheetId="3" r:id="rId3"/>
     <sheet name="ALF" sheetId="4" r:id="rId4"/>
+    <sheet name="meanPERC" sheetId="5" r:id="rId5"/>
+    <sheet name="meanPIB" sheetId="6" r:id="rId6"/>
+    <sheet name="meanGPT" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8869" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9274" uniqueCount="83">
   <si>
     <t>Anio</t>
   </si>
@@ -97206,4 +97209,8944 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>2401.625921907869</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1997.5</v>
+      </c>
+      <c r="E2">
+        <v>3.031357265521311</v>
+      </c>
+      <c r="F2">
+        <v>9.543821626761122</v>
+      </c>
+      <c r="G2">
+        <v>1103.833707870739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2401.625921907869</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2003.5</v>
+      </c>
+      <c r="E3">
+        <v>3.744797151853618</v>
+      </c>
+      <c r="F3">
+        <v>15.07</v>
+      </c>
+      <c r="G3">
+        <v>1947.593522962775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2401.625921907869</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2009.5</v>
+      </c>
+      <c r="E4">
+        <v>4.825629615604552</v>
+      </c>
+      <c r="F4">
+        <v>17.70166666666666</v>
+      </c>
+      <c r="G4">
+        <v>3085.933564908596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>2401.625921907869</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2015</v>
+      </c>
+      <c r="E5">
+        <v>5.478918578343589</v>
+      </c>
+      <c r="F5">
+        <v>18.48136620736634</v>
+      </c>
+      <c r="G5">
+        <v>3469.142891889365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>2446.389826558893</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1997.5</v>
+      </c>
+      <c r="E6">
+        <v>2.374804149926888</v>
+      </c>
+      <c r="F6">
+        <v>14.64866019954617</v>
+      </c>
+      <c r="G6">
+        <v>1142.041313745874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2446.389826558893</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2003.5</v>
+      </c>
+      <c r="E7">
+        <v>2.960605921745836</v>
+      </c>
+      <c r="F7">
+        <v>19.77833333333333</v>
+      </c>
+      <c r="G7">
+        <v>1991.420256104098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>2446.389826558893</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2009.5</v>
+      </c>
+      <c r="E8">
+        <v>3.433498339537921</v>
+      </c>
+      <c r="F8">
+        <v>23.00166666666667</v>
+      </c>
+      <c r="G8">
+        <v>2997.265010569676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>2446.389826558893</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2015</v>
+      </c>
+      <c r="E9">
+        <v>3.616189285580628</v>
+      </c>
+      <c r="F9">
+        <v>23.05111558280171</v>
+      </c>
+      <c r="G9">
+        <v>3654.832725815926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2481.032358781136</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1997.5</v>
+      </c>
+      <c r="E10">
+        <v>2.038187225909109</v>
+      </c>
+      <c r="F10">
+        <v>18.31221194150182</v>
+      </c>
+      <c r="G10">
+        <v>1234.12319776892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2481.032358781136</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2003.5</v>
+      </c>
+      <c r="E11">
+        <v>2.686675700317888</v>
+      </c>
+      <c r="F11">
+        <v>23.805</v>
+      </c>
+      <c r="G11">
+        <v>2142.564514591926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2481.032358781136</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2009.5</v>
+      </c>
+      <c r="E12">
+        <v>3.170984884352185</v>
+      </c>
+      <c r="F12">
+        <v>25.11666666666666</v>
+      </c>
+      <c r="G12">
+        <v>2986.473706069679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>2481.032358781136</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2015</v>
+      </c>
+      <c r="E13">
+        <v>3.453296993761406</v>
+      </c>
+      <c r="F13">
+        <v>24.04999287770837</v>
+      </c>
+      <c r="G13">
+        <v>3560.96801669402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>2652.334596446004</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1997.5</v>
+      </c>
+      <c r="E14">
+        <v>2.996017314852558</v>
+      </c>
+      <c r="F14">
+        <v>11.2608391765425</v>
+      </c>
+      <c r="G14">
+        <v>1081.883854355837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>2652.334596446004</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2003.5</v>
+      </c>
+      <c r="E15">
+        <v>3.913717662261802</v>
+      </c>
+      <c r="F15">
+        <v>15.93</v>
+      </c>
+      <c r="G15">
+        <v>2178.814959050995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>2652.334596446004</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2009.5</v>
+      </c>
+      <c r="E16">
+        <v>4.872721661537439</v>
+      </c>
+      <c r="F16">
+        <v>19.01333333333333</v>
+      </c>
+      <c r="G16">
+        <v>3442.090132035913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2652.334596446004</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2015</v>
+      </c>
+      <c r="E17">
+        <v>5.259814268931978</v>
+      </c>
+      <c r="F17">
+        <v>18.79211189806322</v>
+      </c>
+      <c r="G17">
+        <v>3906.549440341269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2668.487448148695</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1997.5</v>
+      </c>
+      <c r="E18">
+        <v>1.667899319025183</v>
+      </c>
+      <c r="F18">
+        <v>19.7563547099806</v>
+      </c>
+      <c r="G18">
+        <v>1180.438202714308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2668.487448148695</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2003.5</v>
+      </c>
+      <c r="E19">
+        <v>2.46044220015446</v>
+      </c>
+      <c r="F19">
+        <v>27.71333333333333</v>
+      </c>
+      <c r="G19">
+        <v>2024.809885508463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2668.487448148695</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2009.5</v>
+      </c>
+      <c r="E20">
+        <v>3.536755521832996</v>
+      </c>
+      <c r="F20">
+        <v>33.97666666666667</v>
+      </c>
+      <c r="G20">
+        <v>3231.687512072362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>2668.487448148695</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2015</v>
+      </c>
+      <c r="E21">
+        <v>4.21047467685151</v>
+      </c>
+      <c r="F21">
+        <v>30.59738674784962</v>
+      </c>
+      <c r="G21">
+        <v>4237.014192299648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>2742.207954478251</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1997.5</v>
+      </c>
+      <c r="E22">
+        <v>2.800623954408328</v>
+      </c>
+      <c r="F22">
+        <v>12.34318594049088</v>
+      </c>
+      <c r="G22">
+        <v>1280.413028903434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>2742.207954478251</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2003.5</v>
+      </c>
+      <c r="E23">
+        <v>3.713869344053892</v>
+      </c>
+      <c r="F23">
+        <v>15.05333333333333</v>
+      </c>
+      <c r="G23">
+        <v>2302.756644452231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>2742.207954478251</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>2009.5</v>
+      </c>
+      <c r="E24">
+        <v>4.802648697117951</v>
+      </c>
+      <c r="F24">
+        <v>18.26</v>
+      </c>
+      <c r="G24">
+        <v>3368.313926965364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>2742.207954478251</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>2015</v>
+      </c>
+      <c r="E25">
+        <v>5.289586330493565</v>
+      </c>
+      <c r="F25">
+        <v>18.17144760794815</v>
+      </c>
+      <c r="G25">
+        <v>4017.348217591974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>2751.877953712932</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1997.5</v>
+      </c>
+      <c r="E26">
+        <v>2.144894621053152</v>
+      </c>
+      <c r="F26">
+        <v>17.71512400710518</v>
+      </c>
+      <c r="G26">
+        <v>1264.398088924667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>2751.877953712932</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>2003.5</v>
+      </c>
+      <c r="E27">
+        <v>2.639267063259988</v>
+      </c>
+      <c r="F27">
+        <v>22.36166666666666</v>
+      </c>
+      <c r="G27">
+        <v>2283.141224833771</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>2751.877953712932</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>2009.5</v>
+      </c>
+      <c r="E28">
+        <v>3.214913677951099</v>
+      </c>
+      <c r="F28">
+        <v>27.05333333333333</v>
+      </c>
+      <c r="G28">
+        <v>3501.58946834179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>2751.877953712932</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>2015</v>
+      </c>
+      <c r="E29">
+        <v>2.943857731145989</v>
+      </c>
+      <c r="F29">
+        <v>25.05643990659343</v>
+      </c>
+      <c r="G29">
+        <v>3958.383032751501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>2785.665400256456</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1997.5</v>
+      </c>
+      <c r="E30">
+        <v>2.784156856713524</v>
+      </c>
+      <c r="F30">
+        <v>10.15401280110909</v>
+      </c>
+      <c r="G30">
+        <v>1362.242370725413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>2785.665400256456</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>2003.5</v>
+      </c>
+      <c r="E31">
+        <v>3.5200546582754</v>
+      </c>
+      <c r="F31">
+        <v>14.185</v>
+      </c>
+      <c r="G31">
+        <v>2497.546428230336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>2785.665400256456</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>2009.5</v>
+      </c>
+      <c r="E32">
+        <v>3.714122760708042</v>
+      </c>
+      <c r="F32">
+        <v>14.00166666666667</v>
+      </c>
+      <c r="G32">
+        <v>3382.223091190609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>2785.665400256456</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>2015</v>
+      </c>
+      <c r="E33">
+        <v>3.751011874387071</v>
+      </c>
+      <c r="F33">
+        <v>15.61361700600241</v>
+      </c>
+      <c r="G33">
+        <v>3900.649710879467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>2914.696769582865</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>1997.5</v>
+      </c>
+      <c r="E34">
+        <v>2.366657680078289</v>
+      </c>
+      <c r="F34">
+        <v>15.41161891959477</v>
+      </c>
+      <c r="G34">
+        <v>1498.471951899456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>2914.696769582865</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>2003.5</v>
+      </c>
+      <c r="E35">
+        <v>2.816750737123906</v>
+      </c>
+      <c r="F35">
+        <v>20.82666666666666</v>
+      </c>
+      <c r="G35">
+        <v>2632.320806941397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>2914.696769582865</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>2009.5</v>
+      </c>
+      <c r="E36">
+        <v>2.866942169525482</v>
+      </c>
+      <c r="F36">
+        <v>18.535</v>
+      </c>
+      <c r="G36">
+        <v>3551.426085118333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>2914.696769582865</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>2015</v>
+      </c>
+      <c r="E37">
+        <v>2.781508909091775</v>
+      </c>
+      <c r="F37">
+        <v>18.99613354237055</v>
+      </c>
+      <c r="G37">
+        <v>3976.568234372275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>2933.325750205157</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>1997.5</v>
+      </c>
+      <c r="E38">
+        <v>1.692619477024057</v>
+      </c>
+      <c r="F38">
+        <v>15.74131867993711</v>
+      </c>
+      <c r="G38">
+        <v>1654.674120763907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>2933.325750205157</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>2003.5</v>
+      </c>
+      <c r="E39">
+        <v>1.92451053364958</v>
+      </c>
+      <c r="F39">
+        <v>18.05666666666667</v>
+      </c>
+      <c r="G39">
+        <v>2645.006924824617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>2933.325750205157</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>2009.5</v>
+      </c>
+      <c r="E40">
+        <v>1.905851103503641</v>
+      </c>
+      <c r="F40">
+        <v>20.71166666666667</v>
+      </c>
+      <c r="G40">
+        <v>3472.558535254625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>2933.325750205157</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>2015</v>
+      </c>
+      <c r="E41">
+        <v>1.864726975844954</v>
+      </c>
+      <c r="F41">
+        <v>21.04743299860375</v>
+      </c>
+      <c r="G41">
+        <v>3961.06341997748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42">
+        <v>3029.766907916982</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>1997.5</v>
+      </c>
+      <c r="E42">
+        <v>3.002391823333304</v>
+      </c>
+      <c r="F42">
+        <v>15.775307526139</v>
+      </c>
+      <c r="G42">
+        <v>1391.276493563197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43">
+        <v>3029.766907916982</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>2003.5</v>
+      </c>
+      <c r="E43">
+        <v>3.728394934789816</v>
+      </c>
+      <c r="F43">
+        <v>24.515</v>
+      </c>
+      <c r="G43">
+        <v>2658.872716533302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44">
+        <v>3029.766907916982</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>2009.5</v>
+      </c>
+      <c r="E44">
+        <v>4.572246274904708</v>
+      </c>
+      <c r="F44">
+        <v>24.88166666666666</v>
+      </c>
+      <c r="G44">
+        <v>3774.490417868104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
+        <v>3029.766907916982</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>2015</v>
+      </c>
+      <c r="E45">
+        <v>4.999877667766794</v>
+      </c>
+      <c r="F45">
+        <v>26.66108819717643</v>
+      </c>
+      <c r="G45">
+        <v>4294.428003703326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46">
+        <v>3057.493840812304</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>1997.5</v>
+      </c>
+      <c r="E46">
+        <v>2.970268798101817</v>
+      </c>
+      <c r="F46">
+        <v>14.15771252579928</v>
+      </c>
+      <c r="G46">
+        <v>1387.13165080931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>3057.493840812304</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>2003.5</v>
+      </c>
+      <c r="E47">
+        <v>3.820361048263164</v>
+      </c>
+      <c r="F47">
+        <v>18.115</v>
+      </c>
+      <c r="G47">
+        <v>2636.658214643586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>3057.493840812304</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>2009.5</v>
+      </c>
+      <c r="E48">
+        <v>3.532769013541447</v>
+      </c>
+      <c r="F48">
+        <v>19.91333333333333</v>
+      </c>
+      <c r="G48">
+        <v>3777.198654896034</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>3057.493840812304</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>2015</v>
+      </c>
+      <c r="E49">
+        <v>3.810663204618624</v>
+      </c>
+      <c r="F49">
+        <v>22.54689952860196</v>
+      </c>
+      <c r="G49">
+        <v>4428.986842900285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>3111.907057247752</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>1997.5</v>
+      </c>
+      <c r="E50">
+        <v>3.104332277545947</v>
+      </c>
+      <c r="F50">
+        <v>11.37109590319425</v>
+      </c>
+      <c r="G50">
+        <v>1611.501785004906</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51">
+        <v>3111.907057247752</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>2003.5</v>
+      </c>
+      <c r="E51">
+        <v>3.548096601811619</v>
+      </c>
+      <c r="F51">
+        <v>14.65833333333333</v>
+      </c>
+      <c r="G51">
+        <v>2750.235847063614</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>3111.907057247752</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>2009.5</v>
+      </c>
+      <c r="E52">
+        <v>3.562948335328509</v>
+      </c>
+      <c r="F52">
+        <v>12.89166666666667</v>
+      </c>
+      <c r="G52">
+        <v>3864.149372411504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>3111.907057247752</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>2015</v>
+      </c>
+      <c r="E53">
+        <v>3.687558087890054</v>
+      </c>
+      <c r="F53">
+        <v>14.50510720624987</v>
+      </c>
+      <c r="G53">
+        <v>4221.741224510984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54">
+        <v>3310.295801669858</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>1997.5</v>
+      </c>
+      <c r="E54">
+        <v>2.404055271081942</v>
+      </c>
+      <c r="F54">
+        <v>17.35225359413615</v>
+      </c>
+      <c r="G54">
+        <v>1783.159327545719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>3310.295801669858</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>2003.5</v>
+      </c>
+      <c r="E55">
+        <v>2.877130063096784</v>
+      </c>
+      <c r="F55">
+        <v>24.585</v>
+      </c>
+      <c r="G55">
+        <v>3021.130603337706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56">
+        <v>3310.295801669858</v>
+      </c>
+      <c r="C56">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>2009.5</v>
+      </c>
+      <c r="E56">
+        <v>3.596913097746027</v>
+      </c>
+      <c r="F56">
+        <v>25.16833333333333</v>
+      </c>
+      <c r="G56">
+        <v>4015.235864311453</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57">
+        <v>3310.295801669858</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>2015</v>
+      </c>
+      <c r="E57">
+        <v>3.852863708630781</v>
+      </c>
+      <c r="F57">
+        <v>22.95800879723778</v>
+      </c>
+      <c r="G57">
+        <v>4421.657411484553</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <v>3420.415911112996</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>1997.5</v>
+      </c>
+      <c r="E58">
+        <v>2.370670805580276</v>
+      </c>
+      <c r="F58">
+        <v>26.46246782366306</v>
+      </c>
+      <c r="G58">
+        <v>2039.60136474024</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59">
+        <v>3420.415911112996</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>2003.5</v>
+      </c>
+      <c r="E59">
+        <v>2.631433441640306</v>
+      </c>
+      <c r="F59">
+        <v>34.15</v>
+      </c>
+      <c r="G59">
+        <v>3261.681925470613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60">
+        <v>3420.415911112996</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>2009.5</v>
+      </c>
+      <c r="E60">
+        <v>2.769191612051801</v>
+      </c>
+      <c r="F60">
+        <v>29.93</v>
+      </c>
+      <c r="G60">
+        <v>4010.517066227066</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61">
+        <v>3420.415911112996</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>2015</v>
+      </c>
+      <c r="E61">
+        <v>2.637942980569382</v>
+      </c>
+      <c r="F61">
+        <v>28.31952097985505</v>
+      </c>
+      <c r="G61">
+        <v>4369.863288014062</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62">
+        <v>3577.584521169094</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>1997.5</v>
+      </c>
+      <c r="E62">
+        <v>3.223982848587216</v>
+      </c>
+      <c r="F62">
+        <v>15.35009945856594</v>
+      </c>
+      <c r="G62">
+        <v>2201.606341247901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63">
+        <v>3577.584521169094</v>
+      </c>
+      <c r="C63">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>2003.5</v>
+      </c>
+      <c r="E63">
+        <v>3.388729495502126</v>
+      </c>
+      <c r="F63">
+        <v>20.74</v>
+      </c>
+      <c r="G63">
+        <v>3358.759737301083</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64">
+        <v>3577.584521169094</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>2009.5</v>
+      </c>
+      <c r="E64">
+        <v>3.290561083301609</v>
+      </c>
+      <c r="F64">
+        <v>20.795</v>
+      </c>
+      <c r="G64">
+        <v>4219.919115528318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65">
+        <v>3577.584521169094</v>
+      </c>
+      <c r="C65">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>2015</v>
+      </c>
+      <c r="E65">
+        <v>3.241334093540652</v>
+      </c>
+      <c r="F65">
+        <v>19.62058170013799</v>
+      </c>
+      <c r="G65">
+        <v>4530.052890599075</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66">
+        <v>3657.593669661357</v>
+      </c>
+      <c r="C66">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>1997.5</v>
+      </c>
+      <c r="E66">
+        <v>1.787965440074313</v>
+      </c>
+      <c r="F66">
+        <v>19.27789565965604</v>
+      </c>
+      <c r="G66">
+        <v>2351.199019678894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67">
+        <v>3657.593669661357</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>2003.5</v>
+      </c>
+      <c r="E67">
+        <v>2.008925949788385</v>
+      </c>
+      <c r="F67">
+        <v>25.5</v>
+      </c>
+      <c r="G67">
+        <v>3398.25487792172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68">
+        <v>3657.593669661357</v>
+      </c>
+      <c r="C68">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>2009.5</v>
+      </c>
+      <c r="E68">
+        <v>2.412636287974036</v>
+      </c>
+      <c r="F68">
+        <v>26.68833333333333</v>
+      </c>
+      <c r="G68">
+        <v>4325.838781174726</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69">
+        <v>3657.593669661357</v>
+      </c>
+      <c r="C69">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>2015</v>
+      </c>
+      <c r="E69">
+        <v>2.460794430830724</v>
+      </c>
+      <c r="F69">
+        <v>26.37158354754104</v>
+      </c>
+      <c r="G69">
+        <v>4555.081999870087</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70">
+        <v>3660.682852184189</v>
+      </c>
+      <c r="C70">
+        <v>18</v>
+      </c>
+      <c r="D70">
+        <v>1997.5</v>
+      </c>
+      <c r="E70">
+        <v>4.250571885231943</v>
+      </c>
+      <c r="F70">
+        <v>17.94944708175297</v>
+      </c>
+      <c r="G70">
+        <v>2180.600377253767</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <v>3660.682852184189</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>2003.5</v>
+      </c>
+      <c r="E71">
+        <v>4.174054563586759</v>
+      </c>
+      <c r="F71">
+        <v>22.53833333333333</v>
+      </c>
+      <c r="G71">
+        <v>3434.493110883863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72">
+        <v>3660.682852184189</v>
+      </c>
+      <c r="C72">
+        <v>18</v>
+      </c>
+      <c r="D72">
+        <v>2009.5</v>
+      </c>
+      <c r="E72">
+        <v>4.274194615936159</v>
+      </c>
+      <c r="F72">
+        <v>19.10833333333333</v>
+      </c>
+      <c r="G72">
+        <v>4395.675251434765</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73">
+        <v>3660.682852184189</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+      <c r="D73">
+        <v>2015</v>
+      </c>
+      <c r="E73">
+        <v>4.237984125974927</v>
+      </c>
+      <c r="F73">
+        <v>20.90220358755179</v>
+      </c>
+      <c r="G73">
+        <v>4631.962669164363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74">
+        <v>3763.57211516544</v>
+      </c>
+      <c r="C74">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>1997.5</v>
+      </c>
+      <c r="E74">
+        <v>2.925124572579441</v>
+      </c>
+      <c r="F74">
+        <v>15.53060999926748</v>
+      </c>
+      <c r="G74">
+        <v>2162.316808473231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75">
+        <v>3763.57211516544</v>
+      </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>2003.5</v>
+      </c>
+      <c r="E75">
+        <v>3.669362967063131</v>
+      </c>
+      <c r="F75">
+        <v>18.07166666666667</v>
+      </c>
+      <c r="G75">
+        <v>3688.940104206202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76">
+        <v>3763.57211516544</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>2009.5</v>
+      </c>
+      <c r="E76">
+        <v>3.749677044058624</v>
+      </c>
+      <c r="F76">
+        <v>17.01</v>
+      </c>
+      <c r="G76">
+        <v>4390.58506021698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77">
+        <v>3763.57211516544</v>
+      </c>
+      <c r="C77">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>2015</v>
+      </c>
+      <c r="E77">
+        <v>3.647428995553647</v>
+      </c>
+      <c r="F77">
+        <v>17.77325578550365</v>
+      </c>
+      <c r="G77">
+        <v>4812.446487765347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78">
+        <v>3773.59597354467</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>1997.5</v>
+      </c>
+      <c r="E78">
+        <v>1.98624179875637</v>
+      </c>
+      <c r="F78">
+        <v>18.48332666634432</v>
+      </c>
+      <c r="G78">
+        <v>2434.755123762043</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79">
+        <v>3773.59597354467</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>2003.5</v>
+      </c>
+      <c r="E79">
+        <v>1.994136212489708</v>
+      </c>
+      <c r="F79">
+        <v>21.61166666666666</v>
+      </c>
+      <c r="G79">
+        <v>3200.106258506612</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80">
+        <v>3773.59597354467</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>2009.5</v>
+      </c>
+      <c r="E80">
+        <v>2.688426984121671</v>
+      </c>
+      <c r="F80">
+        <v>24.31833333333333</v>
+      </c>
+      <c r="G80">
+        <v>4457.516009682601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81">
+        <v>3773.59597354467</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>2015</v>
+      </c>
+      <c r="E81">
+        <v>2.869279185552873</v>
+      </c>
+      <c r="F81">
+        <v>24.48320161030609</v>
+      </c>
+      <c r="G81">
+        <v>5002.006502227426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82">
+        <v>3837.024313974703</v>
+      </c>
+      <c r="C82">
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>1997.5</v>
+      </c>
+      <c r="E82">
+        <v>1.890807335273286</v>
+      </c>
+      <c r="F82">
+        <v>20.3436850590165</v>
+      </c>
+      <c r="G82">
+        <v>2453.667441418454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83">
+        <v>3837.024313974703</v>
+      </c>
+      <c r="C83">
+        <v>21</v>
+      </c>
+      <c r="D83">
+        <v>2003.5</v>
+      </c>
+      <c r="E83">
+        <v>2.498591583480374</v>
+      </c>
+      <c r="F83">
+        <v>21.44833333333333</v>
+      </c>
+      <c r="G83">
+        <v>3478.076760028225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84">
+        <v>3837.024313974703</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+      <c r="D84">
+        <v>2009.5</v>
+      </c>
+      <c r="E84">
+        <v>3.145819740842349</v>
+      </c>
+      <c r="F84">
+        <v>24.68</v>
+      </c>
+      <c r="G84">
+        <v>4584.625320782868</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85">
+        <v>3837.024313974703</v>
+      </c>
+      <c r="C85">
+        <v>21</v>
+      </c>
+      <c r="D85">
+        <v>2015</v>
+      </c>
+      <c r="E85">
+        <v>2.886580708708462</v>
+      </c>
+      <c r="F85">
+        <v>23.747774809091</v>
+      </c>
+      <c r="G85">
+        <v>4831.727733669262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86">
+        <v>3996.74855390679</v>
+      </c>
+      <c r="C86">
+        <v>22</v>
+      </c>
+      <c r="D86">
+        <v>1997.5</v>
+      </c>
+      <c r="E86">
+        <v>1.929468348774413</v>
+      </c>
+      <c r="F86">
+        <v>24.47007587396472</v>
+      </c>
+      <c r="G86">
+        <v>2940.910870902997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87">
+        <v>3996.74855390679</v>
+      </c>
+      <c r="C87">
+        <v>22</v>
+      </c>
+      <c r="D87">
+        <v>2003.5</v>
+      </c>
+      <c r="E87">
+        <v>1.789235552894493</v>
+      </c>
+      <c r="F87">
+        <v>27.46666666666667</v>
+      </c>
+      <c r="G87">
+        <v>3848.347546568302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88">
+        <v>3996.74855390679</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+      <c r="D88">
+        <v>2009.5</v>
+      </c>
+      <c r="E88">
+        <v>1.678127996945001</v>
+      </c>
+      <c r="F88">
+        <v>25.88166666666666</v>
+      </c>
+      <c r="G88">
+        <v>4410.500187928484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89">
+        <v>3996.74855390679</v>
+      </c>
+      <c r="C89">
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <v>2015</v>
+      </c>
+      <c r="E89">
+        <v>1.720879902575377</v>
+      </c>
+      <c r="F89">
+        <v>22.94958291284515</v>
+      </c>
+      <c r="G89">
+        <v>4787.235610227378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90">
+        <v>4000.521293724007</v>
+      </c>
+      <c r="C90">
+        <v>23</v>
+      </c>
+      <c r="D90">
+        <v>1997.5</v>
+      </c>
+      <c r="E90">
+        <v>2.295880431865389</v>
+      </c>
+      <c r="F90">
+        <v>18.31139731857448</v>
+      </c>
+      <c r="G90">
+        <v>2844.199383618018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91">
+        <v>4000.521293724007</v>
+      </c>
+      <c r="C91">
+        <v>23</v>
+      </c>
+      <c r="D91">
+        <v>2003.5</v>
+      </c>
+      <c r="E91">
+        <v>2.337123379764327</v>
+      </c>
+      <c r="F91">
+        <v>23.89</v>
+      </c>
+      <c r="G91">
+        <v>3873.968322401944</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92">
+        <v>4000.521293724007</v>
+      </c>
+      <c r="C92">
+        <v>23</v>
+      </c>
+      <c r="D92">
+        <v>2009.5</v>
+      </c>
+      <c r="E92">
+        <v>2.095954987587046</v>
+      </c>
+      <c r="F92">
+        <v>24.23833333333333</v>
+      </c>
+      <c r="G92">
+        <v>4302.953734604895</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93">
+        <v>4000.521293724007</v>
+      </c>
+      <c r="C93">
+        <v>23</v>
+      </c>
+      <c r="D93">
+        <v>2015</v>
+      </c>
+      <c r="E93">
+        <v>2.149706811824368</v>
+      </c>
+      <c r="F93">
+        <v>22.68916200140793</v>
+      </c>
+      <c r="G93">
+        <v>4980.963734271169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94">
+        <v>4005.54279676023</v>
+      </c>
+      <c r="C94">
+        <v>24</v>
+      </c>
+      <c r="D94">
+        <v>1997.5</v>
+      </c>
+      <c r="E94">
+        <v>2.491457004460394</v>
+      </c>
+      <c r="F94">
+        <v>13.8785813921462</v>
+      </c>
+      <c r="G94">
+        <v>2404.372841270453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95">
+        <v>4005.54279676023</v>
+      </c>
+      <c r="C95">
+        <v>24</v>
+      </c>
+      <c r="D95">
+        <v>2003.5</v>
+      </c>
+      <c r="E95">
+        <v>2.602695537766008</v>
+      </c>
+      <c r="F95">
+        <v>15.27666666666667</v>
+      </c>
+      <c r="G95">
+        <v>3730.689177384493</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96">
+        <v>4005.54279676023</v>
+      </c>
+      <c r="C96">
+        <v>24</v>
+      </c>
+      <c r="D96">
+        <v>2009.5</v>
+      </c>
+      <c r="E96">
+        <v>2.765335720775397</v>
+      </c>
+      <c r="F96">
+        <v>13.02166666666667</v>
+      </c>
+      <c r="G96">
+        <v>4577.135121774502</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97">
+        <v>4005.54279676023</v>
+      </c>
+      <c r="C97">
+        <v>24</v>
+      </c>
+      <c r="D97">
+        <v>2015</v>
+      </c>
+      <c r="E97">
+        <v>3.270007746409553</v>
+      </c>
+      <c r="F97">
+        <v>16.61124536434899</v>
+      </c>
+      <c r="G97">
+        <v>5309.974046611474</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98">
+        <v>4059.514207059374</v>
+      </c>
+      <c r="C98">
+        <v>25</v>
+      </c>
+      <c r="D98">
+        <v>1997.5</v>
+      </c>
+      <c r="E98">
+        <v>2.324280936851259</v>
+      </c>
+      <c r="F98">
+        <v>12.66649087227</v>
+      </c>
+      <c r="G98">
+        <v>2388.982392739807</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99">
+        <v>4059.514207059374</v>
+      </c>
+      <c r="C99">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>2003.5</v>
+      </c>
+      <c r="E99">
+        <v>2.789531511165647</v>
+      </c>
+      <c r="F99">
+        <v>20.43166666666667</v>
+      </c>
+      <c r="G99">
+        <v>3676.830665510849</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100">
+        <v>4059.514207059374</v>
+      </c>
+      <c r="C100">
+        <v>25</v>
+      </c>
+      <c r="D100">
+        <v>2009.5</v>
+      </c>
+      <c r="E100">
+        <v>3.10750412368856</v>
+      </c>
+      <c r="F100">
+        <v>22.95166666666667</v>
+      </c>
+      <c r="G100">
+        <v>4759.8038950336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101">
+        <v>4059.514207059374</v>
+      </c>
+      <c r="C101">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>2015</v>
+      </c>
+      <c r="E101">
+        <v>2.926801700984054</v>
+      </c>
+      <c r="F101">
+        <v>25.11945370330285</v>
+      </c>
+      <c r="G101">
+        <v>5412.43987495324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102">
+        <v>4260.038762934319</v>
+      </c>
+      <c r="C102">
+        <v>26</v>
+      </c>
+      <c r="D102">
+        <v>1997.5</v>
+      </c>
+      <c r="E102">
+        <v>3.692487061235321</v>
+      </c>
+      <c r="F102">
+        <v>19.03796298552745</v>
+      </c>
+      <c r="G102">
+        <v>2481.914609311035</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103">
+        <v>4260.038762934319</v>
+      </c>
+      <c r="C103">
+        <v>26</v>
+      </c>
+      <c r="D103">
+        <v>2003.5</v>
+      </c>
+      <c r="E103">
+        <v>3.906389200627848</v>
+      </c>
+      <c r="F103">
+        <v>20.32833333333333</v>
+      </c>
+      <c r="G103">
+        <v>3787.211800291604</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104">
+        <v>4260.038762934319</v>
+      </c>
+      <c r="C104">
+        <v>26</v>
+      </c>
+      <c r="D104">
+        <v>2009.5</v>
+      </c>
+      <c r="E104">
+        <v>4.18298564543689</v>
+      </c>
+      <c r="F104">
+        <v>20.89166666666667</v>
+      </c>
+      <c r="G104">
+        <v>4869.84803148178</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105">
+        <v>4260.038762934319</v>
+      </c>
+      <c r="C105">
+        <v>26</v>
+      </c>
+      <c r="D105">
+        <v>2015</v>
+      </c>
+      <c r="E105">
+        <v>4.585732028155496</v>
+      </c>
+      <c r="F105">
+        <v>22.59056206142349</v>
+      </c>
+      <c r="G105">
+        <v>5901.180610652857</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106">
+        <v>4461.3421080027</v>
+      </c>
+      <c r="C106">
+        <v>27</v>
+      </c>
+      <c r="D106">
+        <v>1997.5</v>
+      </c>
+      <c r="E106">
+        <v>2.488039418612326</v>
+      </c>
+      <c r="F106">
+        <v>18.24183869406549</v>
+      </c>
+      <c r="G106">
+        <v>2663.393540590998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107">
+        <v>4461.3421080027</v>
+      </c>
+      <c r="C107">
+        <v>27</v>
+      </c>
+      <c r="D107">
+        <v>2003.5</v>
+      </c>
+      <c r="E107">
+        <v>2.630418270250088</v>
+      </c>
+      <c r="F107">
+        <v>21.18166666666667</v>
+      </c>
+      <c r="G107">
+        <v>3928.377142838355</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108">
+        <v>4461.3421080027</v>
+      </c>
+      <c r="C108">
+        <v>27</v>
+      </c>
+      <c r="D108">
+        <v>2009.5</v>
+      </c>
+      <c r="E108">
+        <v>2.432707825261609</v>
+      </c>
+      <c r="F108">
+        <v>19.25</v>
+      </c>
+      <c r="G108">
+        <v>4697.134939380154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109">
+        <v>4461.3421080027</v>
+      </c>
+      <c r="C109">
+        <v>27</v>
+      </c>
+      <c r="D109">
+        <v>2015</v>
+      </c>
+      <c r="E109">
+        <v>3.016672242004995</v>
+      </c>
+      <c r="F109">
+        <v>26.70387873854921</v>
+      </c>
+      <c r="G109">
+        <v>6556.462809201292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110">
+        <v>4474.024704335203</v>
+      </c>
+      <c r="C110">
+        <v>28</v>
+      </c>
+      <c r="D110">
+        <v>1997.5</v>
+      </c>
+      <c r="E110">
+        <v>3.476820016216343</v>
+      </c>
+      <c r="F110">
+        <v>8.771751602248314</v>
+      </c>
+      <c r="G110">
+        <v>1952.8839223696</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111">
+        <v>4474.024704335203</v>
+      </c>
+      <c r="C111">
+        <v>28</v>
+      </c>
+      <c r="D111">
+        <v>2003.5</v>
+      </c>
+      <c r="E111">
+        <v>3.862720125955616</v>
+      </c>
+      <c r="F111">
+        <v>24.30666666666667</v>
+      </c>
+      <c r="G111">
+        <v>4906.926467159402</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112">
+        <v>4474.024704335203</v>
+      </c>
+      <c r="C112">
+        <v>28</v>
+      </c>
+      <c r="D112">
+        <v>2009.5</v>
+      </c>
+      <c r="E112">
+        <v>2.125723377625001</v>
+      </c>
+      <c r="F112">
+        <v>14.08833333333333</v>
+      </c>
+      <c r="G112">
+        <v>5579.887033960663</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113">
+        <v>4474.024704335203</v>
+      </c>
+      <c r="C113">
+        <v>28</v>
+      </c>
+      <c r="D113">
+        <v>2015</v>
+      </c>
+      <c r="E113">
+        <v>2.420917609975406</v>
+      </c>
+      <c r="F113">
+        <v>9.823457958946815</v>
+      </c>
+      <c r="G113">
+        <v>5456.401393851146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114">
+        <v>4576.203354907377</v>
+      </c>
+      <c r="C114">
+        <v>29</v>
+      </c>
+      <c r="D114">
+        <v>1997.5</v>
+      </c>
+      <c r="E114">
+        <v>3.222271073603049</v>
+      </c>
+      <c r="F114">
+        <v>10.63310100165169</v>
+      </c>
+      <c r="G114">
+        <v>2792.48481189282</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115">
+        <v>4576.203354907377</v>
+      </c>
+      <c r="C115">
+        <v>29</v>
+      </c>
+      <c r="D115">
+        <v>2003.5</v>
+      </c>
+      <c r="E115">
+        <v>3.706173573799029</v>
+      </c>
+      <c r="F115">
+        <v>13.26333333333333</v>
+      </c>
+      <c r="G115">
+        <v>4476.85264069725</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B116">
+        <v>4576.203354907377</v>
+      </c>
+      <c r="C116">
+        <v>29</v>
+      </c>
+      <c r="D116">
+        <v>2009.5</v>
+      </c>
+      <c r="E116">
+        <v>3.663270880363468</v>
+      </c>
+      <c r="F116">
+        <v>11.93833333333333</v>
+      </c>
+      <c r="G116">
+        <v>5337.516568743119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117">
+        <v>4576.203354907377</v>
+      </c>
+      <c r="C117">
+        <v>29</v>
+      </c>
+      <c r="D117">
+        <v>2015</v>
+      </c>
+      <c r="E117">
+        <v>3.624347022544318</v>
+      </c>
+      <c r="F117">
+        <v>11.69270183985962</v>
+      </c>
+      <c r="G117">
+        <v>5697.959398296319</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118">
+        <v>5043.796045765954</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>1997.5</v>
+      </c>
+      <c r="E118">
+        <v>1.76819130867585</v>
+      </c>
+      <c r="F118">
+        <v>6.018588444376859</v>
+      </c>
+      <c r="G118">
+        <v>2740.754514796401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119">
+        <v>5043.796045765954</v>
+      </c>
+      <c r="C119">
+        <v>30</v>
+      </c>
+      <c r="D119">
+        <v>2003.5</v>
+      </c>
+      <c r="E119">
+        <v>1.106371759024855</v>
+      </c>
+      <c r="F119">
+        <v>7.696666666666666</v>
+      </c>
+      <c r="G119">
+        <v>4751.925665853582</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120">
+        <v>5043.796045765954</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="D120">
+        <v>2009.5</v>
+      </c>
+      <c r="E120">
+        <v>0.6061639410771968</v>
+      </c>
+      <c r="F120">
+        <v>5.236666666666666</v>
+      </c>
+      <c r="G120">
+        <v>6528.398107818212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121">
+        <v>5043.796045765954</v>
+      </c>
+      <c r="C121">
+        <v>30</v>
+      </c>
+      <c r="D121">
+        <v>2015</v>
+      </c>
+      <c r="E121">
+        <v>0.9995174188892632</v>
+      </c>
+      <c r="F121">
+        <v>3.313836312520015</v>
+      </c>
+      <c r="G121">
+        <v>6154.10589459562</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122">
+        <v>5607.353616098949</v>
+      </c>
+      <c r="C122">
+        <v>31</v>
+      </c>
+      <c r="D122">
+        <v>1997.5</v>
+      </c>
+      <c r="E122">
+        <v>3.717615633309208</v>
+      </c>
+      <c r="F122">
+        <v>18.00782647703906</v>
+      </c>
+      <c r="G122">
+        <v>3958.943347954455</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123">
+        <v>5607.353616098949</v>
+      </c>
+      <c r="C123">
+        <v>31</v>
+      </c>
+      <c r="D123">
+        <v>2003.5</v>
+      </c>
+      <c r="E123">
+        <v>3.438257414953358</v>
+      </c>
+      <c r="F123">
+        <v>20.62</v>
+      </c>
+      <c r="G123">
+        <v>5409.920502689093</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124">
+        <v>5607.353616098949</v>
+      </c>
+      <c r="C124">
+        <v>31</v>
+      </c>
+      <c r="D124">
+        <v>2009.5</v>
+      </c>
+      <c r="E124">
+        <v>3.184200132909079</v>
+      </c>
+      <c r="F124">
+        <v>18.48833333333333</v>
+      </c>
+      <c r="G124">
+        <v>6527.552173854686</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125">
+        <v>5607.353616098949</v>
+      </c>
+      <c r="C125">
+        <v>31</v>
+      </c>
+      <c r="D125">
+        <v>2015</v>
+      </c>
+      <c r="E125">
+        <v>3.285400248195633</v>
+      </c>
+      <c r="F125">
+        <v>17.38776324306765</v>
+      </c>
+      <c r="G125">
+        <v>6532.998439897561</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126">
+        <v>9583.176132862189</v>
+      </c>
+      <c r="C126">
+        <v>32</v>
+      </c>
+      <c r="D126">
+        <v>1997.5</v>
+      </c>
+      <c r="E126">
+        <v>2.882882957767374</v>
+      </c>
+      <c r="F126">
+        <v>13.13123857842272</v>
+      </c>
+      <c r="G126">
+        <v>6268.27387720235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127">
+        <v>9583.176132862189</v>
+      </c>
+      <c r="C127">
+        <v>32</v>
+      </c>
+      <c r="D127">
+        <v>2003.5</v>
+      </c>
+      <c r="E127">
+        <v>3.177193818846731</v>
+      </c>
+      <c r="F127">
+        <v>10.71833333333333</v>
+      </c>
+      <c r="G127">
+        <v>8855.970945589537</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128">
+        <v>9583.176132862189</v>
+      </c>
+      <c r="C128">
+        <v>32</v>
+      </c>
+      <c r="D128">
+        <v>2009.5</v>
+      </c>
+      <c r="E128">
+        <v>3.584998491803049</v>
+      </c>
+      <c r="F128">
+        <v>9.536666666666667</v>
+      </c>
+      <c r="G128">
+        <v>11671.45075747393</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129">
+        <v>9583.176132862189</v>
+      </c>
+      <c r="C129">
+        <v>32</v>
+      </c>
+      <c r="D129">
+        <v>2015</v>
+      </c>
+      <c r="E129">
+        <v>3.174802315234996</v>
+      </c>
+      <c r="F129">
+        <v>6.914511195491696</v>
+      </c>
+      <c r="G129">
+        <v>11537.00895118293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1.120061106916791</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1997.5</v>
+      </c>
+      <c r="E2">
+        <v>1.76819130867585</v>
+      </c>
+      <c r="F2">
+        <v>6.018588444376859</v>
+      </c>
+      <c r="G2">
+        <v>2740.754514796401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>1.120061106916791</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2003.5</v>
+      </c>
+      <c r="E3">
+        <v>1.106371759024855</v>
+      </c>
+      <c r="F3">
+        <v>7.696666666666666</v>
+      </c>
+      <c r="G3">
+        <v>4751.925665853582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>1.120061106916791</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2009.5</v>
+      </c>
+      <c r="E4">
+        <v>0.6061639410771968</v>
+      </c>
+      <c r="F4">
+        <v>5.236666666666666</v>
+      </c>
+      <c r="G4">
+        <v>6528.398107818212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>1.120061106916791</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2015</v>
+      </c>
+      <c r="E5">
+        <v>0.9995174188892632</v>
+      </c>
+      <c r="F5">
+        <v>3.313836312520015</v>
+      </c>
+      <c r="G5">
+        <v>6154.10589459562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>1.779427950297321</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1997.5</v>
+      </c>
+      <c r="E6">
+        <v>1.929468348774413</v>
+      </c>
+      <c r="F6">
+        <v>24.47007587396472</v>
+      </c>
+      <c r="G6">
+        <v>2940.910870902997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>1.779427950297321</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2003.5</v>
+      </c>
+      <c r="E7">
+        <v>1.789235552894493</v>
+      </c>
+      <c r="F7">
+        <v>27.46666666666667</v>
+      </c>
+      <c r="G7">
+        <v>3848.347546568302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>1.779427950297321</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2009.5</v>
+      </c>
+      <c r="E8">
+        <v>1.678127996945001</v>
+      </c>
+      <c r="F8">
+        <v>25.88166666666666</v>
+      </c>
+      <c r="G8">
+        <v>4410.500187928484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>1.779427950297321</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2015</v>
+      </c>
+      <c r="E9">
+        <v>1.720879902575377</v>
+      </c>
+      <c r="F9">
+        <v>22.94958291284515</v>
+      </c>
+      <c r="G9">
+        <v>4787.235610227378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1.846927022505558</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1997.5</v>
+      </c>
+      <c r="E10">
+        <v>1.692619477024057</v>
+      </c>
+      <c r="F10">
+        <v>15.74131867993711</v>
+      </c>
+      <c r="G10">
+        <v>1654.674120763907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>1.846927022505558</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2003.5</v>
+      </c>
+      <c r="E11">
+        <v>1.92451053364958</v>
+      </c>
+      <c r="F11">
+        <v>18.05666666666667</v>
+      </c>
+      <c r="G11">
+        <v>2645.006924824617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>1.846927022505558</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2009.5</v>
+      </c>
+      <c r="E12">
+        <v>1.905851103503641</v>
+      </c>
+      <c r="F12">
+        <v>20.71166666666667</v>
+      </c>
+      <c r="G12">
+        <v>3472.558535254625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>1.846927022505558</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2015</v>
+      </c>
+      <c r="E13">
+        <v>1.864726975844954</v>
+      </c>
+      <c r="F13">
+        <v>21.04743299860375</v>
+      </c>
+      <c r="G13">
+        <v>3961.06341997748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>2.167580527166864</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1997.5</v>
+      </c>
+      <c r="E14">
+        <v>1.787965440074313</v>
+      </c>
+      <c r="F14">
+        <v>19.27789565965604</v>
+      </c>
+      <c r="G14">
+        <v>2351.199019678894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>2.167580527166864</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2003.5</v>
+      </c>
+      <c r="E15">
+        <v>2.008925949788385</v>
+      </c>
+      <c r="F15">
+        <v>25.5</v>
+      </c>
+      <c r="G15">
+        <v>3398.25487792172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>2.167580527166864</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2009.5</v>
+      </c>
+      <c r="E16">
+        <v>2.412636287974036</v>
+      </c>
+      <c r="F16">
+        <v>26.68833333333333</v>
+      </c>
+      <c r="G16">
+        <v>4325.838781174726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>2.167580527166864</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2015</v>
+      </c>
+      <c r="E17">
+        <v>2.460794430830724</v>
+      </c>
+      <c r="F17">
+        <v>26.37158354754104</v>
+      </c>
+      <c r="G17">
+        <v>4555.081999870087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>2.219666402760282</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1997.5</v>
+      </c>
+      <c r="E18">
+        <v>2.295880431865389</v>
+      </c>
+      <c r="F18">
+        <v>18.31139731857448</v>
+      </c>
+      <c r="G18">
+        <v>2844.199383618018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>2.219666402760282</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2003.5</v>
+      </c>
+      <c r="E19">
+        <v>2.337123379764327</v>
+      </c>
+      <c r="F19">
+        <v>23.89</v>
+      </c>
+      <c r="G19">
+        <v>3873.968322401944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>2.219666402760282</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2009.5</v>
+      </c>
+      <c r="E20">
+        <v>2.095954987587046</v>
+      </c>
+      <c r="F20">
+        <v>24.23833333333333</v>
+      </c>
+      <c r="G20">
+        <v>4302.953734604895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>2.219666402760282</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2015</v>
+      </c>
+      <c r="E21">
+        <v>2.149706811824368</v>
+      </c>
+      <c r="F21">
+        <v>22.68916200140793</v>
+      </c>
+      <c r="G21">
+        <v>4980.963734271169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>2.384521045230156</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1997.5</v>
+      </c>
+      <c r="E22">
+        <v>1.98624179875637</v>
+      </c>
+      <c r="F22">
+        <v>18.48332666634432</v>
+      </c>
+      <c r="G22">
+        <v>2434.755123762043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>2.384521045230156</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2003.5</v>
+      </c>
+      <c r="E23">
+        <v>1.994136212489708</v>
+      </c>
+      <c r="F23">
+        <v>21.61166666666666</v>
+      </c>
+      <c r="G23">
+        <v>3200.106258506612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>2.384521045230156</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>2009.5</v>
+      </c>
+      <c r="E24">
+        <v>2.688426984121671</v>
+      </c>
+      <c r="F24">
+        <v>24.31833333333333</v>
+      </c>
+      <c r="G24">
+        <v>4457.516009682601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2.384521045230156</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>2015</v>
+      </c>
+      <c r="E25">
+        <v>2.869279185552873</v>
+      </c>
+      <c r="F25">
+        <v>24.48320161030609</v>
+      </c>
+      <c r="G25">
+        <v>5002.006502227426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>2.602309709960442</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1997.5</v>
+      </c>
+      <c r="E26">
+        <v>2.370670805580276</v>
+      </c>
+      <c r="F26">
+        <v>26.46246782366306</v>
+      </c>
+      <c r="G26">
+        <v>2039.60136474024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>2.602309709960442</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>2003.5</v>
+      </c>
+      <c r="E27">
+        <v>2.631433441640306</v>
+      </c>
+      <c r="F27">
+        <v>34.15</v>
+      </c>
+      <c r="G27">
+        <v>3261.681925470613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>2.602309709960442</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>2009.5</v>
+      </c>
+      <c r="E28">
+        <v>2.769191612051801</v>
+      </c>
+      <c r="F28">
+        <v>29.93</v>
+      </c>
+      <c r="G28">
+        <v>4010.517066227066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2.602309709960442</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>2015</v>
+      </c>
+      <c r="E29">
+        <v>2.637942980569382</v>
+      </c>
+      <c r="F29">
+        <v>28.31952097985505</v>
+      </c>
+      <c r="G29">
+        <v>4369.863288014062</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>2.605449842076118</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1997.5</v>
+      </c>
+      <c r="E30">
+        <v>1.890807335273286</v>
+      </c>
+      <c r="F30">
+        <v>20.3436850590165</v>
+      </c>
+      <c r="G30">
+        <v>2453.667441418454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>2.605449842076118</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>2003.5</v>
+      </c>
+      <c r="E31">
+        <v>2.498591583480374</v>
+      </c>
+      <c r="F31">
+        <v>21.44833333333333</v>
+      </c>
+      <c r="G31">
+        <v>3478.076760028225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>2.605449842076118</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>2009.5</v>
+      </c>
+      <c r="E32">
+        <v>3.145819740842349</v>
+      </c>
+      <c r="F32">
+        <v>24.68</v>
+      </c>
+      <c r="G32">
+        <v>4584.625320782868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>2.605449842076118</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>2015</v>
+      </c>
+      <c r="E33">
+        <v>2.886580708708462</v>
+      </c>
+      <c r="F33">
+        <v>23.747774809091</v>
+      </c>
+      <c r="G33">
+        <v>4831.727733669262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>2.641959439032254</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>1997.5</v>
+      </c>
+      <c r="E34">
+        <v>2.488039418612326</v>
+      </c>
+      <c r="F34">
+        <v>18.24183869406549</v>
+      </c>
+      <c r="G34">
+        <v>2663.393540590998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>2.641959439032254</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>2003.5</v>
+      </c>
+      <c r="E35">
+        <v>2.630418270250088</v>
+      </c>
+      <c r="F35">
+        <v>21.18166666666667</v>
+      </c>
+      <c r="G35">
+        <v>3928.377142838355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>2.641959439032254</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>2009.5</v>
+      </c>
+      <c r="E36">
+        <v>2.432707825261609</v>
+      </c>
+      <c r="F36">
+        <v>19.25</v>
+      </c>
+      <c r="G36">
+        <v>4697.134939380154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>2.641959439032254</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>2015</v>
+      </c>
+      <c r="E37">
+        <v>3.016672242004995</v>
+      </c>
+      <c r="F37">
+        <v>26.70387873854921</v>
+      </c>
+      <c r="G37">
+        <v>6556.462809201292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>2.707964873954863</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>1997.5</v>
+      </c>
+      <c r="E38">
+        <v>2.366657680078289</v>
+      </c>
+      <c r="F38">
+        <v>15.41161891959477</v>
+      </c>
+      <c r="G38">
+        <v>1498.471951899456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>2.707964873954863</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>2003.5</v>
+      </c>
+      <c r="E39">
+        <v>2.816750737123906</v>
+      </c>
+      <c r="F39">
+        <v>20.82666666666666</v>
+      </c>
+      <c r="G39">
+        <v>2632.320806941397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>2.707964873954863</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>2009.5</v>
+      </c>
+      <c r="E40">
+        <v>2.866942169525482</v>
+      </c>
+      <c r="F40">
+        <v>18.535</v>
+      </c>
+      <c r="G40">
+        <v>3551.426085118333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>2.707964873954863</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>2015</v>
+      </c>
+      <c r="E41">
+        <v>2.781508909091775</v>
+      </c>
+      <c r="F41">
+        <v>18.99613354237055</v>
+      </c>
+      <c r="G41">
+        <v>3976.568234372275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>2.735733273352557</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>1997.5</v>
+      </c>
+      <c r="E42">
+        <v>2.144894621053152</v>
+      </c>
+      <c r="F42">
+        <v>17.71512400710518</v>
+      </c>
+      <c r="G42">
+        <v>1264.398088924667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>2.735733273352557</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>2003.5</v>
+      </c>
+      <c r="E43">
+        <v>2.639267063259988</v>
+      </c>
+      <c r="F43">
+        <v>22.36166666666666</v>
+      </c>
+      <c r="G43">
+        <v>2283.141224833771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>2.735733273352557</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>2009.5</v>
+      </c>
+      <c r="E44">
+        <v>3.214913677951099</v>
+      </c>
+      <c r="F44">
+        <v>27.05333333333333</v>
+      </c>
+      <c r="G44">
+        <v>3501.58946834179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>2.735733273352557</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>2015</v>
+      </c>
+      <c r="E45">
+        <v>2.943857731145989</v>
+      </c>
+      <c r="F45">
+        <v>25.05643990659343</v>
+      </c>
+      <c r="G45">
+        <v>3958.383032751501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46">
+        <v>2.782374002352838</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>1997.5</v>
+      </c>
+      <c r="E46">
+        <v>2.491457004460394</v>
+      </c>
+      <c r="F46">
+        <v>13.8785813921462</v>
+      </c>
+      <c r="G46">
+        <v>2404.372841270453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <v>2.782374002352838</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>2003.5</v>
+      </c>
+      <c r="E47">
+        <v>2.602695537766008</v>
+      </c>
+      <c r="F47">
+        <v>15.27666666666667</v>
+      </c>
+      <c r="G47">
+        <v>3730.689177384493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48">
+        <v>2.782374002352838</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>2009.5</v>
+      </c>
+      <c r="E48">
+        <v>2.765335720775397</v>
+      </c>
+      <c r="F48">
+        <v>13.02166666666667</v>
+      </c>
+      <c r="G48">
+        <v>4577.135121774502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>2.782374002352838</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>2015</v>
+      </c>
+      <c r="E49">
+        <v>3.270007746409553</v>
+      </c>
+      <c r="F49">
+        <v>16.61124536434899</v>
+      </c>
+      <c r="G49">
+        <v>5309.974046611474</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50">
+        <v>2.78702956817238</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>1997.5</v>
+      </c>
+      <c r="E50">
+        <v>2.324280936851259</v>
+      </c>
+      <c r="F50">
+        <v>12.66649087227</v>
+      </c>
+      <c r="G50">
+        <v>2388.982392739807</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51">
+        <v>2.78702956817238</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>2003.5</v>
+      </c>
+      <c r="E51">
+        <v>2.789531511165647</v>
+      </c>
+      <c r="F51">
+        <v>20.43166666666667</v>
+      </c>
+      <c r="G51">
+        <v>3676.830665510849</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52">
+        <v>2.78702956817238</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>2009.5</v>
+      </c>
+      <c r="E52">
+        <v>3.10750412368856</v>
+      </c>
+      <c r="F52">
+        <v>22.95166666666667</v>
+      </c>
+      <c r="G52">
+        <v>4759.8038950336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53">
+        <v>2.78702956817238</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>2015</v>
+      </c>
+      <c r="E53">
+        <v>2.926801700984054</v>
+      </c>
+      <c r="F53">
+        <v>25.11945370330285</v>
+      </c>
+      <c r="G53">
+        <v>5412.43987495324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>2.837286201085147</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>1997.5</v>
+      </c>
+      <c r="E54">
+        <v>2.038187225909109</v>
+      </c>
+      <c r="F54">
+        <v>18.31221194150182</v>
+      </c>
+      <c r="G54">
+        <v>1234.12319776892</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>2.837286201085147</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>2003.5</v>
+      </c>
+      <c r="E55">
+        <v>2.686675700317888</v>
+      </c>
+      <c r="F55">
+        <v>23.805</v>
+      </c>
+      <c r="G55">
+        <v>2142.564514591926</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>2.837286201085147</v>
+      </c>
+      <c r="C56">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>2009.5</v>
+      </c>
+      <c r="E56">
+        <v>3.170984884352185</v>
+      </c>
+      <c r="F56">
+        <v>25.11666666666666</v>
+      </c>
+      <c r="G56">
+        <v>2986.473706069679</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>2.837286201085147</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>2015</v>
+      </c>
+      <c r="E57">
+        <v>3.453296993761406</v>
+      </c>
+      <c r="F57">
+        <v>24.04999287770837</v>
+      </c>
+      <c r="G57">
+        <v>3560.96801669402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58">
+        <v>2.968892929466037</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>1997.5</v>
+      </c>
+      <c r="E58">
+        <v>1.667899319025183</v>
+      </c>
+      <c r="F58">
+        <v>19.7563547099806</v>
+      </c>
+      <c r="G58">
+        <v>1180.438202714308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>2.968892929466037</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>2003.5</v>
+      </c>
+      <c r="E59">
+        <v>2.46044220015446</v>
+      </c>
+      <c r="F59">
+        <v>27.71333333333333</v>
+      </c>
+      <c r="G59">
+        <v>2024.809885508463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>2.968892929466037</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>2009.5</v>
+      </c>
+      <c r="E60">
+        <v>3.536755521832996</v>
+      </c>
+      <c r="F60">
+        <v>33.97666666666667</v>
+      </c>
+      <c r="G60">
+        <v>3231.687512072362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61">
+        <v>2.968892929466037</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>2015</v>
+      </c>
+      <c r="E61">
+        <v>4.21047467685151</v>
+      </c>
+      <c r="F61">
+        <v>30.59738674784962</v>
+      </c>
+      <c r="G61">
+        <v>4237.014192299648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62">
+        <v>2.971545282443091</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>1997.5</v>
+      </c>
+      <c r="E62">
+        <v>3.476820016216343</v>
+      </c>
+      <c r="F62">
+        <v>8.771751602248314</v>
+      </c>
+      <c r="G62">
+        <v>1952.8839223696</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63">
+        <v>2.971545282443091</v>
+      </c>
+      <c r="C63">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>2003.5</v>
+      </c>
+      <c r="E63">
+        <v>3.862720125955616</v>
+      </c>
+      <c r="F63">
+        <v>24.30666666666667</v>
+      </c>
+      <c r="G63">
+        <v>4906.926467159402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64">
+        <v>2.971545282443091</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>2009.5</v>
+      </c>
+      <c r="E64">
+        <v>2.125723377625001</v>
+      </c>
+      <c r="F64">
+        <v>14.08833333333333</v>
+      </c>
+      <c r="G64">
+        <v>5579.887033960663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65">
+        <v>2.971545282443091</v>
+      </c>
+      <c r="C65">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>2015</v>
+      </c>
+      <c r="E65">
+        <v>2.420917609975406</v>
+      </c>
+      <c r="F65">
+        <v>9.823457958946815</v>
+      </c>
+      <c r="G65">
+        <v>5456.401393851146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66">
+        <v>3.096274424197818</v>
+      </c>
+      <c r="C66">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>1997.5</v>
+      </c>
+      <c r="E66">
+        <v>2.374804149926888</v>
+      </c>
+      <c r="F66">
+        <v>14.64866019954617</v>
+      </c>
+      <c r="G66">
+        <v>1142.041313745874</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <v>3.096274424197818</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>2003.5</v>
+      </c>
+      <c r="E67">
+        <v>2.960605921745836</v>
+      </c>
+      <c r="F67">
+        <v>19.77833333333333</v>
+      </c>
+      <c r="G67">
+        <v>1991.420256104098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>3.096274424197818</v>
+      </c>
+      <c r="C68">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>2009.5</v>
+      </c>
+      <c r="E68">
+        <v>3.433498339537921</v>
+      </c>
+      <c r="F68">
+        <v>23.00166666666667</v>
+      </c>
+      <c r="G68">
+        <v>2997.265010569676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>3.096274424197818</v>
+      </c>
+      <c r="C69">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>2015</v>
+      </c>
+      <c r="E69">
+        <v>3.616189285580628</v>
+      </c>
+      <c r="F69">
+        <v>23.05111558280171</v>
+      </c>
+      <c r="G69">
+        <v>3654.832725815926</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70">
+        <v>3.182740535138883</v>
+      </c>
+      <c r="C70">
+        <v>18</v>
+      </c>
+      <c r="D70">
+        <v>1997.5</v>
+      </c>
+      <c r="E70">
+        <v>2.404055271081942</v>
+      </c>
+      <c r="F70">
+        <v>17.35225359413615</v>
+      </c>
+      <c r="G70">
+        <v>1783.159327545719</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71">
+        <v>3.182740535138883</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>2003.5</v>
+      </c>
+      <c r="E71">
+        <v>2.877130063096784</v>
+      </c>
+      <c r="F71">
+        <v>24.585</v>
+      </c>
+      <c r="G71">
+        <v>3021.130603337706</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72">
+        <v>3.182740535138883</v>
+      </c>
+      <c r="C72">
+        <v>18</v>
+      </c>
+      <c r="D72">
+        <v>2009.5</v>
+      </c>
+      <c r="E72">
+        <v>3.596913097746027</v>
+      </c>
+      <c r="F72">
+        <v>25.16833333333333</v>
+      </c>
+      <c r="G72">
+        <v>4015.235864311453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73">
+        <v>3.182740535138883</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+      <c r="D73">
+        <v>2015</v>
+      </c>
+      <c r="E73">
+        <v>3.852863708630781</v>
+      </c>
+      <c r="F73">
+        <v>22.95800879723778</v>
+      </c>
+      <c r="G73">
+        <v>4421.657411484553</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74">
+        <v>3.204969395913038</v>
+      </c>
+      <c r="C74">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>1997.5</v>
+      </c>
+      <c r="E74">
+        <v>2.882882957767374</v>
+      </c>
+      <c r="F74">
+        <v>13.13123857842272</v>
+      </c>
+      <c r="G74">
+        <v>6268.27387720235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75">
+        <v>3.204969395913038</v>
+      </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>2003.5</v>
+      </c>
+      <c r="E75">
+        <v>3.177193818846731</v>
+      </c>
+      <c r="F75">
+        <v>10.71833333333333</v>
+      </c>
+      <c r="G75">
+        <v>8855.970945589537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76">
+        <v>3.204969395913038</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>2009.5</v>
+      </c>
+      <c r="E76">
+        <v>3.584998491803049</v>
+      </c>
+      <c r="F76">
+        <v>9.536666666666667</v>
+      </c>
+      <c r="G76">
+        <v>11671.45075747393</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77">
+        <v>3.204969395913038</v>
+      </c>
+      <c r="C77">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>2015</v>
+      </c>
+      <c r="E77">
+        <v>3.174802315234996</v>
+      </c>
+      <c r="F77">
+        <v>6.914511195491696</v>
+      </c>
+      <c r="G77">
+        <v>11537.00895118293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78">
+        <v>3.286151880232901</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>1997.5</v>
+      </c>
+      <c r="E78">
+        <v>3.223982848587216</v>
+      </c>
+      <c r="F78">
+        <v>15.35009945856594</v>
+      </c>
+      <c r="G78">
+        <v>2201.606341247901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79">
+        <v>3.286151880232901</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>2003.5</v>
+      </c>
+      <c r="E79">
+        <v>3.388729495502126</v>
+      </c>
+      <c r="F79">
+        <v>20.74</v>
+      </c>
+      <c r="G79">
+        <v>3358.759737301083</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80">
+        <v>3.286151880232901</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>2009.5</v>
+      </c>
+      <c r="E80">
+        <v>3.290561083301609</v>
+      </c>
+      <c r="F80">
+        <v>20.795</v>
+      </c>
+      <c r="G80">
+        <v>4219.919115528318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81">
+        <v>3.286151880232901</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>2015</v>
+      </c>
+      <c r="E81">
+        <v>3.241334093540652</v>
+      </c>
+      <c r="F81">
+        <v>19.62058170013799</v>
+      </c>
+      <c r="G81">
+        <v>4530.052890599075</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82">
+        <v>3.406368357341819</v>
+      </c>
+      <c r="C82">
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>1997.5</v>
+      </c>
+      <c r="E82">
+        <v>3.717615633309208</v>
+      </c>
+      <c r="F82">
+        <v>18.00782647703906</v>
+      </c>
+      <c r="G82">
+        <v>3958.943347954455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83">
+        <v>3.406368357341819</v>
+      </c>
+      <c r="C83">
+        <v>21</v>
+      </c>
+      <c r="D83">
+        <v>2003.5</v>
+      </c>
+      <c r="E83">
+        <v>3.438257414953358</v>
+      </c>
+      <c r="F83">
+        <v>20.62</v>
+      </c>
+      <c r="G83">
+        <v>5409.920502689093</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84">
+        <v>3.406368357341819</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+      <c r="D84">
+        <v>2009.5</v>
+      </c>
+      <c r="E84">
+        <v>3.184200132909079</v>
+      </c>
+      <c r="F84">
+        <v>18.48833333333333</v>
+      </c>
+      <c r="G84">
+        <v>6527.552173854686</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85">
+        <v>3.406368357341819</v>
+      </c>
+      <c r="C85">
+        <v>21</v>
+      </c>
+      <c r="D85">
+        <v>2015</v>
+      </c>
+      <c r="E85">
+        <v>3.285400248195633</v>
+      </c>
+      <c r="F85">
+        <v>17.38776324306765</v>
+      </c>
+      <c r="G85">
+        <v>6532.998439897561</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86">
+        <v>3.442336537521009</v>
+      </c>
+      <c r="C86">
+        <v>22</v>
+      </c>
+      <c r="D86">
+        <v>1997.5</v>
+      </c>
+      <c r="E86">
+        <v>2.784156856713524</v>
+      </c>
+      <c r="F86">
+        <v>10.15401280110909</v>
+      </c>
+      <c r="G86">
+        <v>1362.242370725413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87">
+        <v>3.442336537521009</v>
+      </c>
+      <c r="C87">
+        <v>22</v>
+      </c>
+      <c r="D87">
+        <v>2003.5</v>
+      </c>
+      <c r="E87">
+        <v>3.5200546582754</v>
+      </c>
+      <c r="F87">
+        <v>14.185</v>
+      </c>
+      <c r="G87">
+        <v>2497.546428230336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88">
+        <v>3.442336537521009</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+      <c r="D88">
+        <v>2009.5</v>
+      </c>
+      <c r="E88">
+        <v>3.714122760708042</v>
+      </c>
+      <c r="F88">
+        <v>14.00166666666667</v>
+      </c>
+      <c r="G88">
+        <v>3382.223091190609</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89">
+        <v>3.442336537521009</v>
+      </c>
+      <c r="C89">
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <v>2015</v>
+      </c>
+      <c r="E89">
+        <v>3.751011874387071</v>
+      </c>
+      <c r="F89">
+        <v>15.61361700600241</v>
+      </c>
+      <c r="G89">
+        <v>3900.649710879467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90">
+        <v>3.475733825644032</v>
+      </c>
+      <c r="C90">
+        <v>23</v>
+      </c>
+      <c r="D90">
+        <v>1997.5</v>
+      </c>
+      <c r="E90">
+        <v>3.104332277545947</v>
+      </c>
+      <c r="F90">
+        <v>11.37109590319425</v>
+      </c>
+      <c r="G90">
+        <v>1611.501785004906</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91">
+        <v>3.475733825644032</v>
+      </c>
+      <c r="C91">
+        <v>23</v>
+      </c>
+      <c r="D91">
+        <v>2003.5</v>
+      </c>
+      <c r="E91">
+        <v>3.548096601811619</v>
+      </c>
+      <c r="F91">
+        <v>14.65833333333333</v>
+      </c>
+      <c r="G91">
+        <v>2750.235847063614</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92">
+        <v>3.475733825644032</v>
+      </c>
+      <c r="C92">
+        <v>23</v>
+      </c>
+      <c r="D92">
+        <v>2009.5</v>
+      </c>
+      <c r="E92">
+        <v>3.562948335328509</v>
+      </c>
+      <c r="F92">
+        <v>12.89166666666667</v>
+      </c>
+      <c r="G92">
+        <v>3864.149372411504</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93">
+        <v>3.475733825644032</v>
+      </c>
+      <c r="C93">
+        <v>23</v>
+      </c>
+      <c r="D93">
+        <v>2015</v>
+      </c>
+      <c r="E93">
+        <v>3.687558087890054</v>
+      </c>
+      <c r="F93">
+        <v>14.50510720624987</v>
+      </c>
+      <c r="G93">
+        <v>4221.741224510984</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94">
+        <v>3.497898394813711</v>
+      </c>
+      <c r="C94">
+        <v>24</v>
+      </c>
+      <c r="D94">
+        <v>1997.5</v>
+      </c>
+      <c r="E94">
+        <v>2.925124572579441</v>
+      </c>
+      <c r="F94">
+        <v>15.53060999926748</v>
+      </c>
+      <c r="G94">
+        <v>2162.316808473231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95">
+        <v>3.497898394813711</v>
+      </c>
+      <c r="C95">
+        <v>24</v>
+      </c>
+      <c r="D95">
+        <v>2003.5</v>
+      </c>
+      <c r="E95">
+        <v>3.669362967063131</v>
+      </c>
+      <c r="F95">
+        <v>18.07166666666667</v>
+      </c>
+      <c r="G95">
+        <v>3688.940104206202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96">
+        <v>3.497898394813711</v>
+      </c>
+      <c r="C96">
+        <v>24</v>
+      </c>
+      <c r="D96">
+        <v>2009.5</v>
+      </c>
+      <c r="E96">
+        <v>3.749677044058624</v>
+      </c>
+      <c r="F96">
+        <v>17.01</v>
+      </c>
+      <c r="G96">
+        <v>4390.58506021698</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97">
+        <v>3.497898394813711</v>
+      </c>
+      <c r="C97">
+        <v>24</v>
+      </c>
+      <c r="D97">
+        <v>2015</v>
+      </c>
+      <c r="E97">
+        <v>3.647428995553647</v>
+      </c>
+      <c r="F97">
+        <v>17.77325578550365</v>
+      </c>
+      <c r="G97">
+        <v>4812.446487765347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98">
+        <v>3.533515516131263</v>
+      </c>
+      <c r="C98">
+        <v>25</v>
+      </c>
+      <c r="D98">
+        <v>1997.5</v>
+      </c>
+      <c r="E98">
+        <v>2.970268798101817</v>
+      </c>
+      <c r="F98">
+        <v>14.15771252579928</v>
+      </c>
+      <c r="G98">
+        <v>1387.13165080931</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99">
+        <v>3.533515516131263</v>
+      </c>
+      <c r="C99">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>2003.5</v>
+      </c>
+      <c r="E99">
+        <v>3.820361048263164</v>
+      </c>
+      <c r="F99">
+        <v>18.115</v>
+      </c>
+      <c r="G99">
+        <v>2636.658214643586</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100">
+        <v>3.533515516131263</v>
+      </c>
+      <c r="C100">
+        <v>25</v>
+      </c>
+      <c r="D100">
+        <v>2009.5</v>
+      </c>
+      <c r="E100">
+        <v>3.532769013541447</v>
+      </c>
+      <c r="F100">
+        <v>19.91333333333333</v>
+      </c>
+      <c r="G100">
+        <v>3777.198654896034</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101">
+        <v>3.533515516131263</v>
+      </c>
+      <c r="C101">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>2015</v>
+      </c>
+      <c r="E101">
+        <v>3.810663204618624</v>
+      </c>
+      <c r="F101">
+        <v>22.54689952860196</v>
+      </c>
+      <c r="G101">
+        <v>4428.986842900285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102">
+        <v>3.554015637577466</v>
+      </c>
+      <c r="C102">
+        <v>26</v>
+      </c>
+      <c r="D102">
+        <v>1997.5</v>
+      </c>
+      <c r="E102">
+        <v>3.222271073603049</v>
+      </c>
+      <c r="F102">
+        <v>10.63310100165169</v>
+      </c>
+      <c r="G102">
+        <v>2792.48481189282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103">
+        <v>3.554015637577466</v>
+      </c>
+      <c r="C103">
+        <v>26</v>
+      </c>
+      <c r="D103">
+        <v>2003.5</v>
+      </c>
+      <c r="E103">
+        <v>3.706173573799029</v>
+      </c>
+      <c r="F103">
+        <v>13.26333333333333</v>
+      </c>
+      <c r="G103">
+        <v>4476.85264069725</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104">
+        <v>3.554015637577466</v>
+      </c>
+      <c r="C104">
+        <v>26</v>
+      </c>
+      <c r="D104">
+        <v>2009.5</v>
+      </c>
+      <c r="E104">
+        <v>3.663270880363468</v>
+      </c>
+      <c r="F104">
+        <v>11.93833333333333</v>
+      </c>
+      <c r="G104">
+        <v>5337.516568743119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105">
+        <v>3.554015637577466</v>
+      </c>
+      <c r="C105">
+        <v>26</v>
+      </c>
+      <c r="D105">
+        <v>2015</v>
+      </c>
+      <c r="E105">
+        <v>3.624347022544318</v>
+      </c>
+      <c r="F105">
+        <v>11.69270183985962</v>
+      </c>
+      <c r="G105">
+        <v>5697.959398296319</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106">
+        <v>4.075727675198655</v>
+      </c>
+      <c r="C106">
+        <v>27</v>
+      </c>
+      <c r="D106">
+        <v>1997.5</v>
+      </c>
+      <c r="E106">
+        <v>3.002391823333304</v>
+      </c>
+      <c r="F106">
+        <v>15.775307526139</v>
+      </c>
+      <c r="G106">
+        <v>1391.276493563197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107">
+        <v>4.075727675198655</v>
+      </c>
+      <c r="C107">
+        <v>27</v>
+      </c>
+      <c r="D107">
+        <v>2003.5</v>
+      </c>
+      <c r="E107">
+        <v>3.728394934789816</v>
+      </c>
+      <c r="F107">
+        <v>24.515</v>
+      </c>
+      <c r="G107">
+        <v>2658.872716533302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108">
+        <v>4.075727675198655</v>
+      </c>
+      <c r="C108">
+        <v>27</v>
+      </c>
+      <c r="D108">
+        <v>2009.5</v>
+      </c>
+      <c r="E108">
+        <v>4.572246274904708</v>
+      </c>
+      <c r="F108">
+        <v>24.88166666666666</v>
+      </c>
+      <c r="G108">
+        <v>3774.490417868104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109">
+        <v>4.075727675198655</v>
+      </c>
+      <c r="C109">
+        <v>27</v>
+      </c>
+      <c r="D109">
+        <v>2015</v>
+      </c>
+      <c r="E109">
+        <v>4.999877667766794</v>
+      </c>
+      <c r="F109">
+        <v>26.66108819717643</v>
+      </c>
+      <c r="G109">
+        <v>4294.428003703326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110">
+        <v>4.091898483863888</v>
+      </c>
+      <c r="C110">
+        <v>28</v>
+      </c>
+      <c r="D110">
+        <v>1997.5</v>
+      </c>
+      <c r="E110">
+        <v>3.692487061235321</v>
+      </c>
+      <c r="F110">
+        <v>19.03796298552745</v>
+      </c>
+      <c r="G110">
+        <v>2481.914609311035</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111">
+        <v>4.091898483863888</v>
+      </c>
+      <c r="C111">
+        <v>28</v>
+      </c>
+      <c r="D111">
+        <v>2003.5</v>
+      </c>
+      <c r="E111">
+        <v>3.906389200627848</v>
+      </c>
+      <c r="F111">
+        <v>20.32833333333333</v>
+      </c>
+      <c r="G111">
+        <v>3787.211800291604</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112">
+        <v>4.091898483863888</v>
+      </c>
+      <c r="C112">
+        <v>28</v>
+      </c>
+      <c r="D112">
+        <v>2009.5</v>
+      </c>
+      <c r="E112">
+        <v>4.18298564543689</v>
+      </c>
+      <c r="F112">
+        <v>20.89166666666667</v>
+      </c>
+      <c r="G112">
+        <v>4869.84803148178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113">
+        <v>4.091898483863888</v>
+      </c>
+      <c r="C113">
+        <v>28</v>
+      </c>
+      <c r="D113">
+        <v>2015</v>
+      </c>
+      <c r="E113">
+        <v>4.585732028155496</v>
+      </c>
+      <c r="F113">
+        <v>22.59056206142349</v>
+      </c>
+      <c r="G113">
+        <v>5901.180610652857</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114">
+        <v>4.151682081518434</v>
+      </c>
+      <c r="C114">
+        <v>29</v>
+      </c>
+      <c r="D114">
+        <v>1997.5</v>
+      </c>
+      <c r="E114">
+        <v>2.800623954408328</v>
+      </c>
+      <c r="F114">
+        <v>12.34318594049088</v>
+      </c>
+      <c r="G114">
+        <v>1280.413028903434</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115">
+        <v>4.151682081518434</v>
+      </c>
+      <c r="C115">
+        <v>29</v>
+      </c>
+      <c r="D115">
+        <v>2003.5</v>
+      </c>
+      <c r="E115">
+        <v>3.713869344053892</v>
+      </c>
+      <c r="F115">
+        <v>15.05333333333333</v>
+      </c>
+      <c r="G115">
+        <v>2302.756644452231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116">
+        <v>4.151682081518434</v>
+      </c>
+      <c r="C116">
+        <v>29</v>
+      </c>
+      <c r="D116">
+        <v>2009.5</v>
+      </c>
+      <c r="E116">
+        <v>4.802648697117951</v>
+      </c>
+      <c r="F116">
+        <v>18.26</v>
+      </c>
+      <c r="G116">
+        <v>3368.313926965364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117">
+        <v>4.151682081518434</v>
+      </c>
+      <c r="C117">
+        <v>29</v>
+      </c>
+      <c r="D117">
+        <v>2015</v>
+      </c>
+      <c r="E117">
+        <v>5.289586330493565</v>
+      </c>
+      <c r="F117">
+        <v>18.17144760794815</v>
+      </c>
+      <c r="G117">
+        <v>4017.348217591974</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118">
+        <v>4.234201297682447</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>1997.5</v>
+      </c>
+      <c r="E118">
+        <v>4.250571885231943</v>
+      </c>
+      <c r="F118">
+        <v>17.94944708175297</v>
+      </c>
+      <c r="G118">
+        <v>2180.600377253767</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119">
+        <v>4.234201297682447</v>
+      </c>
+      <c r="C119">
+        <v>30</v>
+      </c>
+      <c r="D119">
+        <v>2003.5</v>
+      </c>
+      <c r="E119">
+        <v>4.174054563586759</v>
+      </c>
+      <c r="F119">
+        <v>22.53833333333333</v>
+      </c>
+      <c r="G119">
+        <v>3434.493110883863</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120">
+        <v>4.234201297682447</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="D120">
+        <v>2009.5</v>
+      </c>
+      <c r="E120">
+        <v>4.274194615936159</v>
+      </c>
+      <c r="F120">
+        <v>19.10833333333333</v>
+      </c>
+      <c r="G120">
+        <v>4395.675251434765</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121">
+        <v>4.234201297682447</v>
+      </c>
+      <c r="C121">
+        <v>30</v>
+      </c>
+      <c r="D121">
+        <v>2015</v>
+      </c>
+      <c r="E121">
+        <v>4.237984125974927</v>
+      </c>
+      <c r="F121">
+        <v>20.90220358755179</v>
+      </c>
+      <c r="G121">
+        <v>4631.962669164363</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122">
+        <v>4.260567726895944</v>
+      </c>
+      <c r="C122">
+        <v>31</v>
+      </c>
+      <c r="D122">
+        <v>1997.5</v>
+      </c>
+      <c r="E122">
+        <v>2.996017314852558</v>
+      </c>
+      <c r="F122">
+        <v>11.2608391765425</v>
+      </c>
+      <c r="G122">
+        <v>1081.883854355837</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123">
+        <v>4.260567726895944</v>
+      </c>
+      <c r="C123">
+        <v>31</v>
+      </c>
+      <c r="D123">
+        <v>2003.5</v>
+      </c>
+      <c r="E123">
+        <v>3.913717662261802</v>
+      </c>
+      <c r="F123">
+        <v>15.93</v>
+      </c>
+      <c r="G123">
+        <v>2178.814959050995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124">
+        <v>4.260567726895944</v>
+      </c>
+      <c r="C124">
+        <v>31</v>
+      </c>
+      <c r="D124">
+        <v>2009.5</v>
+      </c>
+      <c r="E124">
+        <v>4.872721661537439</v>
+      </c>
+      <c r="F124">
+        <v>19.01333333333333</v>
+      </c>
+      <c r="G124">
+        <v>3442.090132035913</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125">
+        <v>4.260567726895944</v>
+      </c>
+      <c r="C125">
+        <v>31</v>
+      </c>
+      <c r="D125">
+        <v>2015</v>
+      </c>
+      <c r="E125">
+        <v>5.259814268931978</v>
+      </c>
+      <c r="F125">
+        <v>18.79211189806322</v>
+      </c>
+      <c r="G125">
+        <v>3906.549440341269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126">
+        <v>4.270175652830767</v>
+      </c>
+      <c r="C126">
+        <v>32</v>
+      </c>
+      <c r="D126">
+        <v>1997.5</v>
+      </c>
+      <c r="E126">
+        <v>3.031357265521311</v>
+      </c>
+      <c r="F126">
+        <v>9.543821626761122</v>
+      </c>
+      <c r="G126">
+        <v>1103.833707870739</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127">
+        <v>4.270175652830767</v>
+      </c>
+      <c r="C127">
+        <v>32</v>
+      </c>
+      <c r="D127">
+        <v>2003.5</v>
+      </c>
+      <c r="E127">
+        <v>3.744797151853618</v>
+      </c>
+      <c r="F127">
+        <v>15.07</v>
+      </c>
+      <c r="G127">
+        <v>1947.593522962775</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128">
+        <v>4.270175652830767</v>
+      </c>
+      <c r="C128">
+        <v>32</v>
+      </c>
+      <c r="D128">
+        <v>2009.5</v>
+      </c>
+      <c r="E128">
+        <v>4.825629615604552</v>
+      </c>
+      <c r="F128">
+        <v>17.70166666666666</v>
+      </c>
+      <c r="G128">
+        <v>3085.933564908596</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129">
+        <v>4.270175652830767</v>
+      </c>
+      <c r="C129">
+        <v>32</v>
+      </c>
+      <c r="D129">
+        <v>2015</v>
+      </c>
+      <c r="E129">
+        <v>5.478918578343589</v>
+      </c>
+      <c r="F129">
+        <v>18.48136620736634</v>
+      </c>
+      <c r="G129">
+        <v>3469.142891889365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>5.566439522557552</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1997.5</v>
+      </c>
+      <c r="E2">
+        <v>1.76819130867585</v>
+      </c>
+      <c r="F2">
+        <v>6.018588444376859</v>
+      </c>
+      <c r="G2">
+        <v>2740.754514796401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>5.566439522557552</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2003.5</v>
+      </c>
+      <c r="E3">
+        <v>1.106371759024855</v>
+      </c>
+      <c r="F3">
+        <v>7.696666666666666</v>
+      </c>
+      <c r="G3">
+        <v>4751.925665853582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>5.566439522557552</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2009.5</v>
+      </c>
+      <c r="E4">
+        <v>0.6061639410771968</v>
+      </c>
+      <c r="F4">
+        <v>5.236666666666666</v>
+      </c>
+      <c r="G4">
+        <v>6528.398107818212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>5.566439522557552</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2015</v>
+      </c>
+      <c r="E5">
+        <v>0.9995174188892632</v>
+      </c>
+      <c r="F5">
+        <v>3.313836312520015</v>
+      </c>
+      <c r="G5">
+        <v>6154.10589459562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>10.0751874434786</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1997.5</v>
+      </c>
+      <c r="E6">
+        <v>2.882882957767374</v>
+      </c>
+      <c r="F6">
+        <v>13.13123857842272</v>
+      </c>
+      <c r="G6">
+        <v>6268.27387720235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>10.0751874434786</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2003.5</v>
+      </c>
+      <c r="E7">
+        <v>3.177193818846731</v>
+      </c>
+      <c r="F7">
+        <v>10.71833333333333</v>
+      </c>
+      <c r="G7">
+        <v>8855.970945589537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>10.0751874434786</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2009.5</v>
+      </c>
+      <c r="E8">
+        <v>3.584998491803049</v>
+      </c>
+      <c r="F8">
+        <v>9.536666666666667</v>
+      </c>
+      <c r="G8">
+        <v>11671.45075747393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>10.0751874434786</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2015</v>
+      </c>
+      <c r="E9">
+        <v>3.174802315234996</v>
+      </c>
+      <c r="F9">
+        <v>6.914511195491696</v>
+      </c>
+      <c r="G9">
+        <v>11537.00895118293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>11.88186737704449</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1997.5</v>
+      </c>
+      <c r="E10">
+        <v>3.222271073603049</v>
+      </c>
+      <c r="F10">
+        <v>10.63310100165169</v>
+      </c>
+      <c r="G10">
+        <v>2792.48481189282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>11.88186737704449</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2003.5</v>
+      </c>
+      <c r="E11">
+        <v>3.706173573799029</v>
+      </c>
+      <c r="F11">
+        <v>13.26333333333333</v>
+      </c>
+      <c r="G11">
+        <v>4476.85264069725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>11.88186737704449</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2009.5</v>
+      </c>
+      <c r="E12">
+        <v>3.663270880363468</v>
+      </c>
+      <c r="F12">
+        <v>11.93833333333333</v>
+      </c>
+      <c r="G12">
+        <v>5337.516568743119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>11.88186737704449</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2015</v>
+      </c>
+      <c r="E13">
+        <v>3.624347022544318</v>
+      </c>
+      <c r="F13">
+        <v>11.69270183985962</v>
+      </c>
+      <c r="G13">
+        <v>5697.959398296319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>13.35655077736103</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1997.5</v>
+      </c>
+      <c r="E14">
+        <v>3.104332277545947</v>
+      </c>
+      <c r="F14">
+        <v>11.37109590319425</v>
+      </c>
+      <c r="G14">
+        <v>1611.501785004906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>13.35655077736103</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2003.5</v>
+      </c>
+      <c r="E15">
+        <v>3.548096601811619</v>
+      </c>
+      <c r="F15">
+        <v>14.65833333333333</v>
+      </c>
+      <c r="G15">
+        <v>2750.235847063614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>13.35655077736103</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2009.5</v>
+      </c>
+      <c r="E16">
+        <v>3.562948335328509</v>
+      </c>
+      <c r="F16">
+        <v>12.89166666666667</v>
+      </c>
+      <c r="G16">
+        <v>3864.149372411504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>13.35655077736103</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2015</v>
+      </c>
+      <c r="E17">
+        <v>3.687558087890054</v>
+      </c>
+      <c r="F17">
+        <v>14.50510720624987</v>
+      </c>
+      <c r="G17">
+        <v>4221.741224510984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>13.48857411844454</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1997.5</v>
+      </c>
+      <c r="E18">
+        <v>2.784156856713524</v>
+      </c>
+      <c r="F18">
+        <v>10.15401280110909</v>
+      </c>
+      <c r="G18">
+        <v>1362.242370725413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>13.48857411844454</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2003.5</v>
+      </c>
+      <c r="E19">
+        <v>3.5200546582754</v>
+      </c>
+      <c r="F19">
+        <v>14.185</v>
+      </c>
+      <c r="G19">
+        <v>2497.546428230336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>13.48857411844454</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2009.5</v>
+      </c>
+      <c r="E20">
+        <v>3.714122760708042</v>
+      </c>
+      <c r="F20">
+        <v>14.00166666666667</v>
+      </c>
+      <c r="G20">
+        <v>3382.223091190609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>13.48857411844454</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2015</v>
+      </c>
+      <c r="E21">
+        <v>3.751011874387071</v>
+      </c>
+      <c r="F21">
+        <v>15.61361700600241</v>
+      </c>
+      <c r="G21">
+        <v>3900.649710879467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>14.24755239029878</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1997.5</v>
+      </c>
+      <c r="E22">
+        <v>3.476820016216343</v>
+      </c>
+      <c r="F22">
+        <v>8.771751602248314</v>
+      </c>
+      <c r="G22">
+        <v>1952.8839223696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>14.24755239029878</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2003.5</v>
+      </c>
+      <c r="E23">
+        <v>3.862720125955616</v>
+      </c>
+      <c r="F23">
+        <v>24.30666666666667</v>
+      </c>
+      <c r="G23">
+        <v>4906.926467159402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>14.24755239029878</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>2009.5</v>
+      </c>
+      <c r="E24">
+        <v>2.125723377625001</v>
+      </c>
+      <c r="F24">
+        <v>14.08833333333333</v>
+      </c>
+      <c r="G24">
+        <v>5579.887033960663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>14.24755239029878</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>2015</v>
+      </c>
+      <c r="E25">
+        <v>2.420917609975406</v>
+      </c>
+      <c r="F25">
+        <v>9.823457958946815</v>
+      </c>
+      <c r="G25">
+        <v>5456.401393851146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>14.69704002245713</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1997.5</v>
+      </c>
+      <c r="E26">
+        <v>2.491457004460394</v>
+      </c>
+      <c r="F26">
+        <v>13.8785813921462</v>
+      </c>
+      <c r="G26">
+        <v>2404.372841270453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>14.69704002245713</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>2003.5</v>
+      </c>
+      <c r="E27">
+        <v>2.602695537766008</v>
+      </c>
+      <c r="F27">
+        <v>15.27666666666667</v>
+      </c>
+      <c r="G27">
+        <v>3730.689177384493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>14.69704002245713</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>2009.5</v>
+      </c>
+      <c r="E28">
+        <v>2.765335720775397</v>
+      </c>
+      <c r="F28">
+        <v>13.02166666666667</v>
+      </c>
+      <c r="G28">
+        <v>4577.135121774502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>14.69704002245713</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>2015</v>
+      </c>
+      <c r="E29">
+        <v>3.270007746409553</v>
+      </c>
+      <c r="F29">
+        <v>16.61124536434899</v>
+      </c>
+      <c r="G29">
+        <v>5309.974046611474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>15.19921362519853</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1997.5</v>
+      </c>
+      <c r="E30">
+        <v>3.031357265521311</v>
+      </c>
+      <c r="F30">
+        <v>9.543821626761122</v>
+      </c>
+      <c r="G30">
+        <v>1103.833707870739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>15.19921362519853</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>2003.5</v>
+      </c>
+      <c r="E31">
+        <v>3.744797151853618</v>
+      </c>
+      <c r="F31">
+        <v>15.07</v>
+      </c>
+      <c r="G31">
+        <v>1947.593522962775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>15.19921362519853</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>2009.5</v>
+      </c>
+      <c r="E32">
+        <v>4.825629615604552</v>
+      </c>
+      <c r="F32">
+        <v>17.70166666666666</v>
+      </c>
+      <c r="G32">
+        <v>3085.933564908596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>15.19921362519853</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>2015</v>
+      </c>
+      <c r="E33">
+        <v>5.478918578343589</v>
+      </c>
+      <c r="F33">
+        <v>18.48136620736634</v>
+      </c>
+      <c r="G33">
+        <v>3469.142891889365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>15.95699172044309</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>1997.5</v>
+      </c>
+      <c r="E34">
+        <v>2.800623954408328</v>
+      </c>
+      <c r="F34">
+        <v>12.34318594049088</v>
+      </c>
+      <c r="G34">
+        <v>1280.413028903434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>15.95699172044309</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>2003.5</v>
+      </c>
+      <c r="E35">
+        <v>3.713869344053892</v>
+      </c>
+      <c r="F35">
+        <v>15.05333333333333</v>
+      </c>
+      <c r="G35">
+        <v>2302.756644452231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>15.95699172044309</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>2009.5</v>
+      </c>
+      <c r="E36">
+        <v>4.802648697117951</v>
+      </c>
+      <c r="F36">
+        <v>18.26</v>
+      </c>
+      <c r="G36">
+        <v>3368.313926965364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>15.95699172044309</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>2015</v>
+      </c>
+      <c r="E37">
+        <v>5.289586330493565</v>
+      </c>
+      <c r="F37">
+        <v>18.17144760794815</v>
+      </c>
+      <c r="G37">
+        <v>4017.348217591974</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>16.24907110198476</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>1997.5</v>
+      </c>
+      <c r="E38">
+        <v>2.996017314852558</v>
+      </c>
+      <c r="F38">
+        <v>11.2608391765425</v>
+      </c>
+      <c r="G38">
+        <v>1081.883854355837</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>16.24907110198476</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>2003.5</v>
+      </c>
+      <c r="E39">
+        <v>3.913717662261802</v>
+      </c>
+      <c r="F39">
+        <v>15.93</v>
+      </c>
+      <c r="G39">
+        <v>2178.814959050995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>16.24907110198476</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>2009.5</v>
+      </c>
+      <c r="E40">
+        <v>4.872721661537439</v>
+      </c>
+      <c r="F40">
+        <v>19.01333333333333</v>
+      </c>
+      <c r="G40">
+        <v>3442.090132035913</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>16.24907110198476</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>2015</v>
+      </c>
+      <c r="E41">
+        <v>5.259814268931978</v>
+      </c>
+      <c r="F41">
+        <v>18.79211189806322</v>
+      </c>
+      <c r="G41">
+        <v>3906.549440341269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>17.09638311285945</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>1997.5</v>
+      </c>
+      <c r="E42">
+        <v>2.925124572579441</v>
+      </c>
+      <c r="F42">
+        <v>15.53060999926748</v>
+      </c>
+      <c r="G42">
+        <v>2162.316808473231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>17.09638311285945</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>2003.5</v>
+      </c>
+      <c r="E43">
+        <v>3.669362967063131</v>
+      </c>
+      <c r="F43">
+        <v>18.07166666666667</v>
+      </c>
+      <c r="G43">
+        <v>3688.940104206202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>17.09638311285945</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>2009.5</v>
+      </c>
+      <c r="E44">
+        <v>3.749677044058624</v>
+      </c>
+      <c r="F44">
+        <v>17.01</v>
+      </c>
+      <c r="G44">
+        <v>4390.58506021698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>17.09638311285945</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>2015</v>
+      </c>
+      <c r="E45">
+        <v>3.647428995553647</v>
+      </c>
+      <c r="F45">
+        <v>17.77325578550365</v>
+      </c>
+      <c r="G45">
+        <v>4812.446487765347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>18.442354782158</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>1997.5</v>
+      </c>
+      <c r="E46">
+        <v>2.366657680078289</v>
+      </c>
+      <c r="F46">
+        <v>15.41161891959477</v>
+      </c>
+      <c r="G46">
+        <v>1498.471951899456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>18.442354782158</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>2003.5</v>
+      </c>
+      <c r="E47">
+        <v>2.816750737123906</v>
+      </c>
+      <c r="F47">
+        <v>20.82666666666666</v>
+      </c>
+      <c r="G47">
+        <v>2632.320806941397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>18.442354782158</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>2009.5</v>
+      </c>
+      <c r="E48">
+        <v>2.866942169525482</v>
+      </c>
+      <c r="F48">
+        <v>18.535</v>
+      </c>
+      <c r="G48">
+        <v>3551.426085118333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>18.442354782158</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>2015</v>
+      </c>
+      <c r="E49">
+        <v>2.781508909091775</v>
+      </c>
+      <c r="F49">
+        <v>18.99613354237055</v>
+      </c>
+      <c r="G49">
+        <v>3976.568234372275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>18.62598076336001</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>1997.5</v>
+      </c>
+      <c r="E50">
+        <v>3.717615633309208</v>
+      </c>
+      <c r="F50">
+        <v>18.00782647703906</v>
+      </c>
+      <c r="G50">
+        <v>3958.943347954455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <v>18.62598076336001</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>2003.5</v>
+      </c>
+      <c r="E51">
+        <v>3.438257414953358</v>
+      </c>
+      <c r="F51">
+        <v>20.62</v>
+      </c>
+      <c r="G51">
+        <v>5409.920502689093</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52">
+        <v>18.62598076336001</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>2009.5</v>
+      </c>
+      <c r="E52">
+        <v>3.184200132909079</v>
+      </c>
+      <c r="F52">
+        <v>18.48833333333333</v>
+      </c>
+      <c r="G52">
+        <v>6527.552173854686</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53">
+        <v>18.62598076336001</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>2015</v>
+      </c>
+      <c r="E53">
+        <v>3.285400248195633</v>
+      </c>
+      <c r="F53">
+        <v>17.38776324306765</v>
+      </c>
+      <c r="G53">
+        <v>6532.998439897561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54">
+        <v>18.68323634693364</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>1997.5</v>
+      </c>
+      <c r="E54">
+        <v>2.970268798101817</v>
+      </c>
+      <c r="F54">
+        <v>14.15771252579928</v>
+      </c>
+      <c r="G54">
+        <v>1387.13165080931</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>18.68323634693364</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>2003.5</v>
+      </c>
+      <c r="E55">
+        <v>3.820361048263164</v>
+      </c>
+      <c r="F55">
+        <v>18.115</v>
+      </c>
+      <c r="G55">
+        <v>2636.658214643586</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56">
+        <v>18.68323634693364</v>
+      </c>
+      <c r="C56">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>2009.5</v>
+      </c>
+      <c r="E56">
+        <v>3.532769013541447</v>
+      </c>
+      <c r="F56">
+        <v>19.91333333333333</v>
+      </c>
+      <c r="G56">
+        <v>3777.198654896034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57">
+        <v>18.68323634693364</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>2015</v>
+      </c>
+      <c r="E57">
+        <v>3.810663204618624</v>
+      </c>
+      <c r="F57">
+        <v>22.54689952860196</v>
+      </c>
+      <c r="G57">
+        <v>4428.986842900285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <v>18.88927125296855</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>1997.5</v>
+      </c>
+      <c r="E58">
+        <v>1.692619477024057</v>
+      </c>
+      <c r="F58">
+        <v>15.74131867993711</v>
+      </c>
+      <c r="G58">
+        <v>1654.674120763907</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59">
+        <v>18.88927125296855</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>2003.5</v>
+      </c>
+      <c r="E59">
+        <v>1.92451053364958</v>
+      </c>
+      <c r="F59">
+        <v>18.05666666666667</v>
+      </c>
+      <c r="G59">
+        <v>2645.006924824617</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60">
+        <v>18.88927125296855</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>2009.5</v>
+      </c>
+      <c r="E60">
+        <v>1.905851103503641</v>
+      </c>
+      <c r="F60">
+        <v>20.71166666666667</v>
+      </c>
+      <c r="G60">
+        <v>3472.558535254625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>18.88927125296855</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>2015</v>
+      </c>
+      <c r="E61">
+        <v>1.864726975844954</v>
+      </c>
+      <c r="F61">
+        <v>21.04743299860375</v>
+      </c>
+      <c r="G61">
+        <v>3961.06341997748</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62">
+        <v>19.12642028967598</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>1997.5</v>
+      </c>
+      <c r="E62">
+        <v>3.223982848587216</v>
+      </c>
+      <c r="F62">
+        <v>15.35009945856594</v>
+      </c>
+      <c r="G62">
+        <v>2201.606341247901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63">
+        <v>19.12642028967598</v>
+      </c>
+      <c r="C63">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>2003.5</v>
+      </c>
+      <c r="E63">
+        <v>3.388729495502126</v>
+      </c>
+      <c r="F63">
+        <v>20.74</v>
+      </c>
+      <c r="G63">
+        <v>3358.759737301083</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64">
+        <v>19.12642028967598</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>2009.5</v>
+      </c>
+      <c r="E64">
+        <v>3.290561083301609</v>
+      </c>
+      <c r="F64">
+        <v>20.795</v>
+      </c>
+      <c r="G64">
+        <v>4219.919115528318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65">
+        <v>19.12642028967598</v>
+      </c>
+      <c r="C65">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>2015</v>
+      </c>
+      <c r="E65">
+        <v>3.241334093540652</v>
+      </c>
+      <c r="F65">
+        <v>19.62058170013799</v>
+      </c>
+      <c r="G65">
+        <v>4530.052890599075</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66">
+        <v>20.11994394558697</v>
+      </c>
+      <c r="C66">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>1997.5</v>
+      </c>
+      <c r="E66">
+        <v>2.374804149926888</v>
+      </c>
+      <c r="F66">
+        <v>14.64866019954617</v>
+      </c>
+      <c r="G66">
+        <v>1142.041313745874</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <v>20.11994394558697</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>2003.5</v>
+      </c>
+      <c r="E67">
+        <v>2.960605921745836</v>
+      </c>
+      <c r="F67">
+        <v>19.77833333333333</v>
+      </c>
+      <c r="G67">
+        <v>1991.420256104098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>20.11994394558697</v>
+      </c>
+      <c r="C68">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>2009.5</v>
+      </c>
+      <c r="E68">
+        <v>3.433498339537921</v>
+      </c>
+      <c r="F68">
+        <v>23.00166666666667</v>
+      </c>
+      <c r="G68">
+        <v>2997.265010569676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>20.11994394558697</v>
+      </c>
+      <c r="C69">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>2015</v>
+      </c>
+      <c r="E69">
+        <v>3.616189285580628</v>
+      </c>
+      <c r="F69">
+        <v>23.05111558280171</v>
+      </c>
+      <c r="G69">
+        <v>3654.832725815926</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70">
+        <v>20.12457933399286</v>
+      </c>
+      <c r="C70">
+        <v>18</v>
+      </c>
+      <c r="D70">
+        <v>1997.5</v>
+      </c>
+      <c r="E70">
+        <v>4.250571885231943</v>
+      </c>
+      <c r="F70">
+        <v>17.94944708175297</v>
+      </c>
+      <c r="G70">
+        <v>2180.600377253767</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <v>20.12457933399286</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>2003.5</v>
+      </c>
+      <c r="E71">
+        <v>4.174054563586759</v>
+      </c>
+      <c r="F71">
+        <v>22.53833333333333</v>
+      </c>
+      <c r="G71">
+        <v>3434.493110883863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72">
+        <v>20.12457933399286</v>
+      </c>
+      <c r="C72">
+        <v>18</v>
+      </c>
+      <c r="D72">
+        <v>2009.5</v>
+      </c>
+      <c r="E72">
+        <v>4.274194615936159</v>
+      </c>
+      <c r="F72">
+        <v>19.10833333333333</v>
+      </c>
+      <c r="G72">
+        <v>4395.675251434765</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73">
+        <v>20.12457933399286</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+      <c r="D73">
+        <v>2015</v>
+      </c>
+      <c r="E73">
+        <v>4.237984125974927</v>
+      </c>
+      <c r="F73">
+        <v>20.90220358755179</v>
+      </c>
+      <c r="G73">
+        <v>4631.962669164363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74">
+        <v>20.29231947722655</v>
+      </c>
+      <c r="C74">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>1997.5</v>
+      </c>
+      <c r="E74">
+        <v>2.324280936851259</v>
+      </c>
+      <c r="F74">
+        <v>12.66649087227</v>
+      </c>
+      <c r="G74">
+        <v>2388.982392739807</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75">
+        <v>20.29231947722655</v>
+      </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>2003.5</v>
+      </c>
+      <c r="E75">
+        <v>2.789531511165647</v>
+      </c>
+      <c r="F75">
+        <v>20.43166666666667</v>
+      </c>
+      <c r="G75">
+        <v>3676.830665510849</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76">
+        <v>20.29231947722655</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>2009.5</v>
+      </c>
+      <c r="E76">
+        <v>3.10750412368856</v>
+      </c>
+      <c r="F76">
+        <v>22.95166666666667</v>
+      </c>
+      <c r="G76">
+        <v>4759.8038950336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>20.29231947722655</v>
+      </c>
+      <c r="C77">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>2015</v>
+      </c>
+      <c r="E77">
+        <v>2.926801700984054</v>
+      </c>
+      <c r="F77">
+        <v>25.11945370330285</v>
+      </c>
+      <c r="G77">
+        <v>5412.43987495324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78">
+        <v>20.71213126173774</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>1997.5</v>
+      </c>
+      <c r="E78">
+        <v>3.692487061235321</v>
+      </c>
+      <c r="F78">
+        <v>19.03796298552745</v>
+      </c>
+      <c r="G78">
+        <v>2481.914609311035</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79">
+        <v>20.71213126173774</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>2003.5</v>
+      </c>
+      <c r="E79">
+        <v>3.906389200627848</v>
+      </c>
+      <c r="F79">
+        <v>20.32833333333333</v>
+      </c>
+      <c r="G79">
+        <v>3787.211800291604</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80">
+        <v>20.71213126173774</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>2009.5</v>
+      </c>
+      <c r="E80">
+        <v>4.18298564543689</v>
+      </c>
+      <c r="F80">
+        <v>20.89166666666667</v>
+      </c>
+      <c r="G80">
+        <v>4869.84803148178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81">
+        <v>20.71213126173774</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>2015</v>
+      </c>
+      <c r="E81">
+        <v>4.585732028155496</v>
+      </c>
+      <c r="F81">
+        <v>22.59056206142349</v>
+      </c>
+      <c r="G81">
+        <v>5901.180610652857</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82">
+        <v>21.34434602482034</v>
+      </c>
+      <c r="C82">
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>1997.5</v>
+      </c>
+      <c r="E82">
+        <v>2.488039418612326</v>
+      </c>
+      <c r="F82">
+        <v>18.24183869406549</v>
+      </c>
+      <c r="G82">
+        <v>2663.393540590998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83">
+        <v>21.34434602482034</v>
+      </c>
+      <c r="C83">
+        <v>21</v>
+      </c>
+      <c r="D83">
+        <v>2003.5</v>
+      </c>
+      <c r="E83">
+        <v>2.630418270250088</v>
+      </c>
+      <c r="F83">
+        <v>21.18166666666667</v>
+      </c>
+      <c r="G83">
+        <v>3928.377142838355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84">
+        <v>21.34434602482034</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+      <c r="D84">
+        <v>2009.5</v>
+      </c>
+      <c r="E84">
+        <v>2.432707825261609</v>
+      </c>
+      <c r="F84">
+        <v>19.25</v>
+      </c>
+      <c r="G84">
+        <v>4697.134939380154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85">
+        <v>21.34434602482034</v>
+      </c>
+      <c r="C85">
+        <v>21</v>
+      </c>
+      <c r="D85">
+        <v>2015</v>
+      </c>
+      <c r="E85">
+        <v>3.016672242004995</v>
+      </c>
+      <c r="F85">
+        <v>26.70387873854921</v>
+      </c>
+      <c r="G85">
+        <v>6556.462809201292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86">
+        <v>22.2241320691626</v>
+      </c>
+      <c r="C86">
+        <v>22</v>
+      </c>
+      <c r="D86">
+        <v>1997.5</v>
+      </c>
+      <c r="E86">
+        <v>1.98624179875637</v>
+      </c>
+      <c r="F86">
+        <v>18.48332666634432</v>
+      </c>
+      <c r="G86">
+        <v>2434.755123762043</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87">
+        <v>22.2241320691626</v>
+      </c>
+      <c r="C87">
+        <v>22</v>
+      </c>
+      <c r="D87">
+        <v>2003.5</v>
+      </c>
+      <c r="E87">
+        <v>1.994136212489708</v>
+      </c>
+      <c r="F87">
+        <v>21.61166666666666</v>
+      </c>
+      <c r="G87">
+        <v>3200.106258506612</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88">
+        <v>22.2241320691626</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+      <c r="D88">
+        <v>2009.5</v>
+      </c>
+      <c r="E88">
+        <v>2.688426984121671</v>
+      </c>
+      <c r="F88">
+        <v>24.31833333333333</v>
+      </c>
+      <c r="G88">
+        <v>4457.516009682601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89">
+        <v>22.2241320691626</v>
+      </c>
+      <c r="C89">
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <v>2015</v>
+      </c>
+      <c r="E89">
+        <v>2.869279185552873</v>
+      </c>
+      <c r="F89">
+        <v>24.48320161030609</v>
+      </c>
+      <c r="G89">
+        <v>5002.006502227426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90">
+        <v>22.28222316332894</v>
+      </c>
+      <c r="C90">
+        <v>23</v>
+      </c>
+      <c r="D90">
+        <v>1997.5</v>
+      </c>
+      <c r="E90">
+        <v>2.295880431865389</v>
+      </c>
+      <c r="F90">
+        <v>18.31139731857448</v>
+      </c>
+      <c r="G90">
+        <v>2844.199383618018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91">
+        <v>22.28222316332894</v>
+      </c>
+      <c r="C91">
+        <v>23</v>
+      </c>
+      <c r="D91">
+        <v>2003.5</v>
+      </c>
+      <c r="E91">
+        <v>2.337123379764327</v>
+      </c>
+      <c r="F91">
+        <v>23.89</v>
+      </c>
+      <c r="G91">
+        <v>3873.968322401944</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92">
+        <v>22.28222316332894</v>
+      </c>
+      <c r="C92">
+        <v>23</v>
+      </c>
+      <c r="D92">
+        <v>2009.5</v>
+      </c>
+      <c r="E92">
+        <v>2.095954987587046</v>
+      </c>
+      <c r="F92">
+        <v>24.23833333333333</v>
+      </c>
+      <c r="G92">
+        <v>4302.953734604895</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93">
+        <v>22.28222316332894</v>
+      </c>
+      <c r="C93">
+        <v>23</v>
+      </c>
+      <c r="D93">
+        <v>2015</v>
+      </c>
+      <c r="E93">
+        <v>2.149706811824368</v>
+      </c>
+      <c r="F93">
+        <v>22.68916200140793</v>
+      </c>
+      <c r="G93">
+        <v>4980.963734271169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94">
+        <v>22.51589893117681</v>
+      </c>
+      <c r="C94">
+        <v>24</v>
+      </c>
+      <c r="D94">
+        <v>1997.5</v>
+      </c>
+      <c r="E94">
+        <v>2.404055271081942</v>
+      </c>
+      <c r="F94">
+        <v>17.35225359413615</v>
+      </c>
+      <c r="G94">
+        <v>1783.159327545719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95">
+        <v>22.51589893117681</v>
+      </c>
+      <c r="C95">
+        <v>24</v>
+      </c>
+      <c r="D95">
+        <v>2003.5</v>
+      </c>
+      <c r="E95">
+        <v>2.877130063096784</v>
+      </c>
+      <c r="F95">
+        <v>24.585</v>
+      </c>
+      <c r="G95">
+        <v>3021.130603337706</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96">
+        <v>22.51589893117681</v>
+      </c>
+      <c r="C96">
+        <v>24</v>
+      </c>
+      <c r="D96">
+        <v>2009.5</v>
+      </c>
+      <c r="E96">
+        <v>3.596913097746027</v>
+      </c>
+      <c r="F96">
+        <v>25.16833333333333</v>
+      </c>
+      <c r="G96">
+        <v>4015.235864311453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97">
+        <v>22.51589893117681</v>
+      </c>
+      <c r="C97">
+        <v>24</v>
+      </c>
+      <c r="D97">
+        <v>2015</v>
+      </c>
+      <c r="E97">
+        <v>3.852863708630781</v>
+      </c>
+      <c r="F97">
+        <v>22.95800879723778</v>
+      </c>
+      <c r="G97">
+        <v>4421.657411484553</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98">
+        <v>22.55494830036021</v>
+      </c>
+      <c r="C98">
+        <v>25</v>
+      </c>
+      <c r="D98">
+        <v>1997.5</v>
+      </c>
+      <c r="E98">
+        <v>1.890807335273286</v>
+      </c>
+      <c r="F98">
+        <v>20.3436850590165</v>
+      </c>
+      <c r="G98">
+        <v>2453.667441418454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99">
+        <v>22.55494830036021</v>
+      </c>
+      <c r="C99">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>2003.5</v>
+      </c>
+      <c r="E99">
+        <v>2.498591583480374</v>
+      </c>
+      <c r="F99">
+        <v>21.44833333333333</v>
+      </c>
+      <c r="G99">
+        <v>3478.076760028225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100">
+        <v>22.55494830036021</v>
+      </c>
+      <c r="C100">
+        <v>25</v>
+      </c>
+      <c r="D100">
+        <v>2009.5</v>
+      </c>
+      <c r="E100">
+        <v>3.145819740842349</v>
+      </c>
+      <c r="F100">
+        <v>24.68</v>
+      </c>
+      <c r="G100">
+        <v>4584.625320782868</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101">
+        <v>22.55494830036021</v>
+      </c>
+      <c r="C101">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>2015</v>
+      </c>
+      <c r="E101">
+        <v>2.886580708708462</v>
+      </c>
+      <c r="F101">
+        <v>23.747774809091</v>
+      </c>
+      <c r="G101">
+        <v>4831.727733669262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102">
+        <v>22.82096787146921</v>
+      </c>
+      <c r="C102">
+        <v>26</v>
+      </c>
+      <c r="D102">
+        <v>1997.5</v>
+      </c>
+      <c r="E102">
+        <v>2.038187225909109</v>
+      </c>
+      <c r="F102">
+        <v>18.31221194150182</v>
+      </c>
+      <c r="G102">
+        <v>1234.12319776892</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103">
+        <v>22.82096787146921</v>
+      </c>
+      <c r="C103">
+        <v>26</v>
+      </c>
+      <c r="D103">
+        <v>2003.5</v>
+      </c>
+      <c r="E103">
+        <v>2.686675700317888</v>
+      </c>
+      <c r="F103">
+        <v>23.805</v>
+      </c>
+      <c r="G103">
+        <v>2142.564514591926</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104">
+        <v>22.82096787146921</v>
+      </c>
+      <c r="C104">
+        <v>26</v>
+      </c>
+      <c r="D104">
+        <v>2009.5</v>
+      </c>
+      <c r="E104">
+        <v>3.170984884352185</v>
+      </c>
+      <c r="F104">
+        <v>25.11666666666666</v>
+      </c>
+      <c r="G104">
+        <v>2986.473706069679</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105">
+        <v>22.82096787146921</v>
+      </c>
+      <c r="C105">
+        <v>26</v>
+      </c>
+      <c r="D105">
+        <v>2015</v>
+      </c>
+      <c r="E105">
+        <v>3.453296993761406</v>
+      </c>
+      <c r="F105">
+        <v>24.04999287770837</v>
+      </c>
+      <c r="G105">
+        <v>3560.96801669402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106">
+        <v>22.95826559749553</v>
+      </c>
+      <c r="C106">
+        <v>27</v>
+      </c>
+      <c r="D106">
+        <v>1997.5</v>
+      </c>
+      <c r="E106">
+        <v>3.002391823333304</v>
+      </c>
+      <c r="F106">
+        <v>15.775307526139</v>
+      </c>
+      <c r="G106">
+        <v>1391.276493563197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107">
+        <v>22.95826559749553</v>
+      </c>
+      <c r="C107">
+        <v>27</v>
+      </c>
+      <c r="D107">
+        <v>2003.5</v>
+      </c>
+      <c r="E107">
+        <v>3.728394934789816</v>
+      </c>
+      <c r="F107">
+        <v>24.515</v>
+      </c>
+      <c r="G107">
+        <v>2658.872716533302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108">
+        <v>22.95826559749553</v>
+      </c>
+      <c r="C108">
+        <v>27</v>
+      </c>
+      <c r="D108">
+        <v>2009.5</v>
+      </c>
+      <c r="E108">
+        <v>4.572246274904708</v>
+      </c>
+      <c r="F108">
+        <v>24.88166666666666</v>
+      </c>
+      <c r="G108">
+        <v>3774.490417868104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109">
+        <v>22.95826559749553</v>
+      </c>
+      <c r="C109">
+        <v>27</v>
+      </c>
+      <c r="D109">
+        <v>2015</v>
+      </c>
+      <c r="E109">
+        <v>4.999877667766794</v>
+      </c>
+      <c r="F109">
+        <v>26.66108819717643</v>
+      </c>
+      <c r="G109">
+        <v>4294.428003703326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110">
+        <v>23.04664097842465</v>
+      </c>
+      <c r="C110">
+        <v>28</v>
+      </c>
+      <c r="D110">
+        <v>1997.5</v>
+      </c>
+      <c r="E110">
+        <v>2.144894621053152</v>
+      </c>
+      <c r="F110">
+        <v>17.71512400710518</v>
+      </c>
+      <c r="G110">
+        <v>1264.398088924667</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111">
+        <v>23.04664097842465</v>
+      </c>
+      <c r="C111">
+        <v>28</v>
+      </c>
+      <c r="D111">
+        <v>2003.5</v>
+      </c>
+      <c r="E111">
+        <v>2.639267063259988</v>
+      </c>
+      <c r="F111">
+        <v>22.36166666666666</v>
+      </c>
+      <c r="G111">
+        <v>2283.141224833771</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112">
+        <v>23.04664097842465</v>
+      </c>
+      <c r="C112">
+        <v>28</v>
+      </c>
+      <c r="D112">
+        <v>2009.5</v>
+      </c>
+      <c r="E112">
+        <v>3.214913677951099</v>
+      </c>
+      <c r="F112">
+        <v>27.05333333333333</v>
+      </c>
+      <c r="G112">
+        <v>3501.58946834179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113">
+        <v>23.04664097842465</v>
+      </c>
+      <c r="C113">
+        <v>28</v>
+      </c>
+      <c r="D113">
+        <v>2015</v>
+      </c>
+      <c r="E113">
+        <v>2.943857731145989</v>
+      </c>
+      <c r="F113">
+        <v>25.05643990659343</v>
+      </c>
+      <c r="G113">
+        <v>3958.383032751501</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B114">
+        <v>24.4594531351326</v>
+      </c>
+      <c r="C114">
+        <v>29</v>
+      </c>
+      <c r="D114">
+        <v>1997.5</v>
+      </c>
+      <c r="E114">
+        <v>1.787965440074313</v>
+      </c>
+      <c r="F114">
+        <v>19.27789565965604</v>
+      </c>
+      <c r="G114">
+        <v>2351.199019678894</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115">
+        <v>24.4594531351326</v>
+      </c>
+      <c r="C115">
+        <v>29</v>
+      </c>
+      <c r="D115">
+        <v>2003.5</v>
+      </c>
+      <c r="E115">
+        <v>2.008925949788385</v>
+      </c>
+      <c r="F115">
+        <v>25.5</v>
+      </c>
+      <c r="G115">
+        <v>3398.25487792172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116">
+        <v>24.4594531351326</v>
+      </c>
+      <c r="C116">
+        <v>29</v>
+      </c>
+      <c r="D116">
+        <v>2009.5</v>
+      </c>
+      <c r="E116">
+        <v>2.412636287974036</v>
+      </c>
+      <c r="F116">
+        <v>26.68833333333333</v>
+      </c>
+      <c r="G116">
+        <v>4325.838781174726</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117">
+        <v>24.4594531351326</v>
+      </c>
+      <c r="C117">
+        <v>29</v>
+      </c>
+      <c r="D117">
+        <v>2015</v>
+      </c>
+      <c r="E117">
+        <v>2.460794430830724</v>
+      </c>
+      <c r="F117">
+        <v>26.37158354754104</v>
+      </c>
+      <c r="G117">
+        <v>4555.081999870087</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118">
+        <v>25.1919980300358</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>1997.5</v>
+      </c>
+      <c r="E118">
+        <v>1.929468348774413</v>
+      </c>
+      <c r="F118">
+        <v>24.47007587396472</v>
+      </c>
+      <c r="G118">
+        <v>2940.910870902997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119">
+        <v>25.1919980300358</v>
+      </c>
+      <c r="C119">
+        <v>30</v>
+      </c>
+      <c r="D119">
+        <v>2003.5</v>
+      </c>
+      <c r="E119">
+        <v>1.789235552894493</v>
+      </c>
+      <c r="F119">
+        <v>27.46666666666667</v>
+      </c>
+      <c r="G119">
+        <v>3848.347546568302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120">
+        <v>25.1919980300358</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="D120">
+        <v>2009.5</v>
+      </c>
+      <c r="E120">
+        <v>1.678127996945001</v>
+      </c>
+      <c r="F120">
+        <v>25.88166666666666</v>
+      </c>
+      <c r="G120">
+        <v>4410.500187928484</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121">
+        <v>25.1919980300358</v>
+      </c>
+      <c r="C121">
+        <v>30</v>
+      </c>
+      <c r="D121">
+        <v>2015</v>
+      </c>
+      <c r="E121">
+        <v>1.720879902575377</v>
+      </c>
+      <c r="F121">
+        <v>22.94958291284515</v>
+      </c>
+      <c r="G121">
+        <v>4787.235610227378</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122">
+        <v>28.01093536445756</v>
+      </c>
+      <c r="C122">
+        <v>31</v>
+      </c>
+      <c r="D122">
+        <v>1997.5</v>
+      </c>
+      <c r="E122">
+        <v>1.667899319025183</v>
+      </c>
+      <c r="F122">
+        <v>19.7563547099806</v>
+      </c>
+      <c r="G122">
+        <v>1180.438202714308</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123">
+        <v>28.01093536445756</v>
+      </c>
+      <c r="C123">
+        <v>31</v>
+      </c>
+      <c r="D123">
+        <v>2003.5</v>
+      </c>
+      <c r="E123">
+        <v>2.46044220015446</v>
+      </c>
+      <c r="F123">
+        <v>27.71333333333333</v>
+      </c>
+      <c r="G123">
+        <v>2024.809885508463</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124">
+        <v>28.01093536445756</v>
+      </c>
+      <c r="C124">
+        <v>31</v>
+      </c>
+      <c r="D124">
+        <v>2009.5</v>
+      </c>
+      <c r="E124">
+        <v>3.536755521832996</v>
+      </c>
+      <c r="F124">
+        <v>33.97666666666667</v>
+      </c>
+      <c r="G124">
+        <v>3231.687512072362</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125">
+        <v>28.01093536445756</v>
+      </c>
+      <c r="C125">
+        <v>31</v>
+      </c>
+      <c r="D125">
+        <v>2015</v>
+      </c>
+      <c r="E125">
+        <v>4.21047467685151</v>
+      </c>
+      <c r="F125">
+        <v>30.59738674784962</v>
+      </c>
+      <c r="G125">
+        <v>4237.014192299648</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126">
+        <v>29.71549720087953</v>
+      </c>
+      <c r="C126">
+        <v>32</v>
+      </c>
+      <c r="D126">
+        <v>1997.5</v>
+      </c>
+      <c r="E126">
+        <v>2.370670805580276</v>
+      </c>
+      <c r="F126">
+        <v>26.46246782366306</v>
+      </c>
+      <c r="G126">
+        <v>2039.60136474024</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127">
+        <v>29.71549720087953</v>
+      </c>
+      <c r="C127">
+        <v>32</v>
+      </c>
+      <c r="D127">
+        <v>2003.5</v>
+      </c>
+      <c r="E127">
+        <v>2.631433441640306</v>
+      </c>
+      <c r="F127">
+        <v>34.15</v>
+      </c>
+      <c r="G127">
+        <v>3261.681925470613</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128">
+        <v>29.71549720087953</v>
+      </c>
+      <c r="C128">
+        <v>32</v>
+      </c>
+      <c r="D128">
+        <v>2009.5</v>
+      </c>
+      <c r="E128">
+        <v>2.769191612051801</v>
+      </c>
+      <c r="F128">
+        <v>29.93</v>
+      </c>
+      <c r="G128">
+        <v>4010.517066227066</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B129">
+        <v>29.71549720087953</v>
+      </c>
+      <c r="C129">
+        <v>32</v>
+      </c>
+      <c r="D129">
+        <v>2015</v>
+      </c>
+      <c r="E129">
+        <v>2.637942980569382</v>
+      </c>
+      <c r="F129">
+        <v>28.31952097985505</v>
+      </c>
+      <c r="G129">
+        <v>4369.863288014062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>